--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4F8BC1-6226-4183-A566-CBF7D1198137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Boneco</t>
   </si>
@@ -159,6 +159,27 @@
   </si>
   <si>
     <t>Raniery</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Leandrão</t>
+  </si>
+  <si>
+    <t>Geovane</t>
+  </si>
+  <si>
+    <t>Leah</t>
+  </si>
+  <si>
+    <t>Milton</t>
+  </si>
+  <si>
+    <t>Lucian</t>
+  </si>
+  <si>
+    <t>Melhor Goleiro</t>
   </si>
 </sst>
 </file>
@@ -485,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,7 +518,7 @@
     <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -531,8 +552,11 @@
       <c r="K1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -563,8 +587,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -595,8 +622,11 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -627,8 +657,11 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -659,8 +692,11 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -691,8 +727,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -723,8 +762,11 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -755,8 +797,11 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -787,8 +832,11 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -819,8 +867,11 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -851,8 +902,11 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -883,8 +937,11 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -915,8 +972,11 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -947,8 +1007,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -979,8 +1042,11 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1009,6 +1075,9 @@
         <v>0</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>0</v>
       </c>
     </row>
@@ -1043,6 +1112,9 @@
       <c r="K17">
         <v>0</v>
       </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1075,6 +1147,9 @@
       <c r="K18">
         <v>0</v>
       </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -1107,6 +1182,9 @@
       <c r="K19">
         <v>0</v>
       </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -1139,6 +1217,9 @@
       <c r="K20">
         <v>0</v>
       </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -1171,6 +1252,9 @@
       <c r="K21">
         <v>0</v>
       </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -1203,6 +1287,9 @@
       <c r="K22">
         <v>0</v>
       </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -1235,6 +1322,9 @@
       <c r="K23">
         <v>0</v>
       </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -1267,6 +1357,9 @@
       <c r="K24">
         <v>0</v>
       </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -1299,6 +1392,9 @@
       <c r="K25">
         <v>0</v>
       </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -1332,6 +1428,9 @@
       <c r="K26">
         <v>0</v>
       </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -1365,6 +1464,9 @@
       <c r="K27">
         <v>0</v>
       </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -1398,6 +1500,9 @@
       <c r="K28">
         <v>0</v>
       </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -1431,6 +1536,9 @@
       <c r="K29">
         <v>0</v>
       </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -1464,6 +1572,9 @@
       <c r="K30">
         <v>0</v>
       </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -1497,6 +1608,9 @@
       <c r="K31">
         <v>0</v>
       </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -1530,6 +1644,9 @@
       <c r="K32">
         <v>0</v>
       </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -1563,6 +1680,9 @@
       <c r="K33">
         <v>0</v>
       </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -1594,6 +1714,9 @@
         <v>0</v>
       </c>
       <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>0</v>
       </c>
       <c r="O34" s="1"/>
@@ -1629,6 +1752,9 @@
       <c r="K35">
         <v>0</v>
       </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -1662,6 +1788,9 @@
       <c r="K36">
         <v>0</v>
       </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -1693,6 +1822,9 @@
         <v>0</v>
       </c>
       <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>0</v>
       </c>
       <c r="O37" s="1"/>
@@ -1728,6 +1860,9 @@
       <c r="K38">
         <v>0</v>
       </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -1761,6 +1896,9 @@
       <c r="K39">
         <v>0</v>
       </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -1794,6 +1932,9 @@
       <c r="K40">
         <v>0</v>
       </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -1827,6 +1968,9 @@
       <c r="K41">
         <v>0</v>
       </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -1860,6 +2004,9 @@
       <c r="K42">
         <v>19</v>
       </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -1893,13 +2040,783 @@
       <c r="K43">
         <v>17</v>
       </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
       <c r="O44" s="1"/>
     </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>12</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>18</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K446" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0EA2589-1AA2-46B2-AED6-11F8BC2FDA09}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Boneco</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>Melhor Goleiro</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Vander</t>
+  </si>
+  <si>
+    <t>Paulinho</t>
+  </si>
+  <si>
+    <t>Cristiano</t>
   </si>
 </sst>
 </file>
@@ -506,11 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2816,6 +2831,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>12</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>13</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0EA2589-1AA2-46B2-AED6-11F8BC2FDA09}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FD5EA89-C5FD-4FB2-930E-5C1577850BE1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
   <si>
     <t>Boneco</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>Cristiano</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>Said</t>
+  </si>
+  <si>
+    <t>Jordan</t>
   </si>
 </sst>
 </file>
@@ -521,11 +530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3601,6 +3610,776 @@
         <v>1</v>
       </c>
     </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>10</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>8</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>18</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FD5EA89-C5FD-4FB2-930E-5C1577850BE1}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D80455DA-B202-437B-B73A-259BB055F624}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$K$446</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$L$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
   <si>
     <t>Boneco</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du </t>
+  </si>
+  <si>
+    <t>Chelin</t>
   </si>
 </sst>
 </file>
@@ -530,11 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4380,7 +4386,848 @@
         <v>0</v>
       </c>
     </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>11</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>6</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>5</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>7</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>8</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>4</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>6</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:L127" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D80455DA-B202-437B-B73A-259BB055F624}"/>
+  <xr:revisionPtr revIDLastSave="343" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B1C92C4-9CAE-4C9B-A795-71C46B013587}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$L$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$L$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>Boneco</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Du </t>
   </si>
   <si>
     <t>Chelin</t>
@@ -539,8 +536,8 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4633,7 +4630,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C117">
         <v>6</v>
@@ -4983,7 +4980,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -5227,7 +5224,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L127" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="343" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B1C92C4-9CAE-4C9B-A795-71C46B013587}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F62F17-3268-4374-89E4-98D3B7BC7549}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
   <si>
     <t>Boneco</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Chelin</t>
+  </si>
+  <si>
+    <t>Senna</t>
   </si>
 </sst>
 </file>
@@ -533,11 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5223,6 +5226,811 @@
         <v>0</v>
       </c>
     </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>51</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>45</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>3</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>11</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>9</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="466" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F62F17-3268-4374-89E4-98D3B7BC7549}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4335B38-5524-42DA-9660-8D78882F04BC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="60">
   <si>
     <t>Boneco</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Senna</t>
+  </si>
+  <si>
+    <t>Caio</t>
+  </si>
+  <si>
+    <t>Rulli</t>
+  </si>
+  <si>
+    <t>Nenzinho</t>
   </si>
 </sst>
 </file>
@@ -536,11 +545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O156"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6031,6 +6040,811 @@
         <v>0</v>
       </c>
     </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158">
+        <v>3</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+      <c r="F159">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>37</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>59</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171">
+        <v>4</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>53</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>8</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>47</v>
+      </c>
+      <c r="C178">
+        <v>4</v>
+      </c>
+      <c r="D178">
+        <v>4</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>5</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>55</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>4</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>9</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4335B38-5524-42DA-9660-8D78882F04BC}"/>
+  <xr:revisionPtr revIDLastSave="714" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B02C288-8A5E-47D9-ACB5-61491E00EA63}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$L$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$L$189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="61">
   <si>
     <t>Boneco</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Nenzinho</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
   </si>
 </sst>
 </file>
@@ -545,11 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6845,8 +6848,778 @@
         <v>0</v>
       </c>
     </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>43</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+      <c r="F182">
+        <v>3</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>4</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>35</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="F187">
+        <v>3</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
+      </c>
+      <c r="F190">
+        <v>6</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>4</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>50</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>4</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193">
+        <v>4</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>5</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>38</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>27</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>36</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>60</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>30</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200">
+        <v>5</v>
+      </c>
+      <c r="D200">
+        <v>4</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>14</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>45</v>
+      </c>
+      <c r="C201">
+        <v>7</v>
+      </c>
+      <c r="D201">
+        <v>4</v>
+      </c>
+      <c r="E201">
+        <v>5</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>17</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L133" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L189" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="714" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B02C288-8A5E-47D9-ACB5-61491E00EA63}"/>
+  <xr:revisionPtr revIDLastSave="833" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2683248B-6130-41BF-91BC-A3719470908D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="63">
   <si>
     <t>Boneco</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>Marcelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igor </t>
+  </si>
+  <si>
+    <t>Bruno</t>
   </si>
 </sst>
 </file>
@@ -548,11 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:O224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K201" sqref="K201"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L224" sqref="L224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7618,6 +7624,811 @@
         <v>1</v>
       </c>
     </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>6</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>4</v>
+      </c>
+      <c r="F202">
+        <v>6</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>38</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>4</v>
+      </c>
+      <c r="F203">
+        <v>3</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>24</v>
+      </c>
+      <c r="C204">
+        <v>6</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>4</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205">
+        <v>6</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="E205">
+        <v>4</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206">
+        <v>4</v>
+      </c>
+      <c r="F206">
+        <v>4</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>61</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>4</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>32</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>4</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>4</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>4</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>30</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>4</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>28</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>62</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>4</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215">
+        <v>5</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+      <c r="D216">
+        <v>5</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>3</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+      <c r="E217">
+        <v>3</v>
+      </c>
+      <c r="F217">
+        <v>4</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>49</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>4</v>
+      </c>
+      <c r="E218">
+        <v>3</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>4</v>
+      </c>
+      <c r="E219">
+        <v>3</v>
+      </c>
+      <c r="F219">
+        <v>3</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>27</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>4</v>
+      </c>
+      <c r="E220">
+        <v>3</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>33</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>4</v>
+      </c>
+      <c r="E221">
+        <v>3</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>17</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>5</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>11</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+      <c r="D223">
+        <v>5</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>11</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>45</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="D224">
+        <v>5</v>
+      </c>
+      <c r="E224">
+        <v>3</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>12</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L189" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="833" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2683248B-6130-41BF-91BC-A3719470908D}"/>
+  <xr:revisionPtr revIDLastSave="1073" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{619B6E9B-659A-4B66-BB54-D950F70C5CE8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="66">
   <si>
     <t>Boneco</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>Bruno</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Fabinho goleiro</t>
+  </si>
+  <si>
+    <t>Yuri</t>
   </si>
 </sst>
 </file>
@@ -554,11 +563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O224"/>
+  <dimension ref="A1:O269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L224" sqref="L224"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8429,6 +8438,1581 @@
         <v>0</v>
       </c>
     </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>38</v>
+      </c>
+      <c r="C225">
+        <v>5</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>4</v>
+      </c>
+      <c r="F225">
+        <v>5</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>28</v>
+      </c>
+      <c r="C226">
+        <v>5</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>4</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>4</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228">
+        <v>5</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>4</v>
+      </c>
+      <c r="F228">
+        <v>3</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>29</v>
+      </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>4</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>33</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>31</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>5</v>
+      </c>
+      <c r="F232">
+        <v>2</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>5</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>63</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>5</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>49</v>
+      </c>
+      <c r="C235">
+        <v>6</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>3</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>43</v>
+      </c>
+      <c r="C236">
+        <v>6</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236">
+        <v>5</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237">
+        <v>6</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238">
+        <v>6</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>2</v>
+      </c>
+      <c r="F238">
+        <v>3</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>6</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <v>4</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>4</v>
+      </c>
+      <c r="F241">
+        <v>2</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>20</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>4</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>24</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>4</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>32</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>47</v>
+      </c>
+      <c r="C245">
+        <v>7</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245">
+        <v>8</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>18</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>64</v>
+      </c>
+      <c r="C246">
+        <v>8</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246">
+        <v>7</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>17</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>29</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+      <c r="D247">
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <v>3</v>
+      </c>
+      <c r="F247">
+        <v>2</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>27</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248">
+        <v>3</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>26</v>
+      </c>
+      <c r="C249">
+        <v>4</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+      <c r="F249">
+        <v>2</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250">
+        <v>4</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <v>3</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251">
+        <v>4</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>3</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252">
+        <v>5</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>28</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>5</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254">
+        <v>5</v>
+      </c>
+      <c r="F254">
+        <v>4</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>5</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>5</v>
+      </c>
+      <c r="F256">
+        <v>3</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>43</v>
+      </c>
+      <c r="C257">
+        <v>4</v>
+      </c>
+      <c r="D257">
+        <v>4</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>3</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>34</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258">
+        <v>4</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>3</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>41</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+      <c r="D259">
+        <v>4</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+      <c r="D260">
+        <v>4</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>4</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>24</v>
+      </c>
+      <c r="C261">
+        <v>4</v>
+      </c>
+      <c r="D261">
+        <v>4</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>38</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+      <c r="E262">
+        <v>4</v>
+      </c>
+      <c r="F262">
+        <v>2</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>49</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263">
+        <v>4</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>20</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="E264">
+        <v>4</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>23</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+      <c r="E265">
+        <v>4</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>4</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>47</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+      <c r="D267">
+        <v>4</v>
+      </c>
+      <c r="E267">
+        <v>5</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>13</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>45</v>
+      </c>
+      <c r="C268">
+        <v>4</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
+      </c>
+      <c r="E268">
+        <v>4</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>12</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>65</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+      <c r="D269">
+        <v>3</v>
+      </c>
+      <c r="E269">
+        <v>3</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>8</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L189" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1073" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{619B6E9B-659A-4B66-BB54-D950F70C5CE8}"/>
+  <xr:revisionPtr revIDLastSave="1181" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AECC7A5-6FFF-4F5F-9B1B-55992183BC83}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="68">
   <si>
     <t>Boneco</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Yuri</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Fabio</t>
   </si>
 </sst>
 </file>
@@ -563,11 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O269"/>
+  <dimension ref="A1:O293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J293" sqref="J293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10013,6 +10019,846 @@
         <v>1</v>
       </c>
     </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>33</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+      <c r="D270">
+        <v>3</v>
+      </c>
+      <c r="E270">
+        <v>2</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>49</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+      <c r="D271">
+        <v>3</v>
+      </c>
+      <c r="E271">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+      <c r="D272">
+        <v>3</v>
+      </c>
+      <c r="E272">
+        <v>2</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>29</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+      <c r="D273">
+        <v>3</v>
+      </c>
+      <c r="E273">
+        <v>2</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <v>3</v>
+      </c>
+      <c r="E274">
+        <v>2</v>
+      </c>
+      <c r="F274">
+        <v>5</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>17</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>3</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>8</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+      <c r="D276">
+        <v>4</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277">
+        <v>4</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>20</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+      <c r="D278">
+        <v>4</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>25</v>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+      <c r="D279">
+        <v>4</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>4</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <v>4</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>55</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+      <c r="D281">
+        <v>4</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>3</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>43</v>
+      </c>
+      <c r="C282">
+        <v>4</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>5</v>
+      </c>
+      <c r="F282">
+        <v>3</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>62</v>
+      </c>
+      <c r="C283">
+        <v>4</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>5</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>66</v>
+      </c>
+      <c r="C284">
+        <v>4</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>5</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>4</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>5</v>
+      </c>
+      <c r="F285">
+        <v>4</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>38</v>
+      </c>
+      <c r="C286">
+        <v>4</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>5</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>45</v>
+      </c>
+      <c r="C287">
+        <v>4</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>5</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>9</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>4</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>23</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>4</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>30</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>4</v>
+      </c>
+      <c r="F290">
+        <v>2</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>28</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>4</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>26</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>4</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>67</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>6</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L189" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1181" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AECC7A5-6FFF-4F5F-9B1B-55992183BC83}"/>
+  <xr:revisionPtr revIDLastSave="1294" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA619589-7117-4510-B29E-EEB876A99789}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$L$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$L$293</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="69">
   <si>
     <t>Boneco</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Fabio</t>
+  </si>
+  <si>
+    <t>Leo</t>
   </si>
 </sst>
 </file>
@@ -569,11 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O293"/>
+  <dimension ref="A1:O315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J293" sqref="J293"/>
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I315" sqref="I315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9718,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -10859,8 +10862,778 @@
         <v>0</v>
       </c>
     </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>28</v>
+      </c>
+      <c r="C295">
+        <v>5</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+      <c r="E295">
+        <v>2</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>34</v>
+      </c>
+      <c r="C296">
+        <v>5</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+      <c r="E296">
+        <v>2</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>47</v>
+      </c>
+      <c r="C297">
+        <v>5</v>
+      </c>
+      <c r="D297">
+        <v>2</v>
+      </c>
+      <c r="E297">
+        <v>2</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>27</v>
+      </c>
+      <c r="C298">
+        <v>5</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+      <c r="E298">
+        <v>2</v>
+      </c>
+      <c r="F298">
+        <v>4</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+      <c r="D299">
+        <v>3</v>
+      </c>
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299">
+        <v>2</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+      <c r="D300">
+        <v>3</v>
+      </c>
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300">
+        <v>2</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>25</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>3</v>
+      </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301">
+        <v>2</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+      <c r="D302">
+        <v>3</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>3</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>41</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+      <c r="E304">
+        <v>2</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>3</v>
+      </c>
+      <c r="E305">
+        <v>2</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>26</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>3</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>23</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>3</v>
+      </c>
+      <c r="E307">
+        <v>2</v>
+      </c>
+      <c r="F307">
+        <v>2</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>33</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>3</v>
+      </c>
+      <c r="E308">
+        <v>2</v>
+      </c>
+      <c r="F308">
+        <v>2</v>
+      </c>
+      <c r="G308">
+        <v>1</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>53</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+      <c r="E309">
+        <v>3</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>68</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+      <c r="E310">
+        <v>3</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>1</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+      <c r="L310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>31</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311">
+        <v>3</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>20</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+      <c r="E312">
+        <v>3</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>49</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+      <c r="E313">
+        <v>3</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>17</v>
+      </c>
+      <c r="C314">
+        <v>5</v>
+      </c>
+      <c r="D314">
+        <v>5</v>
+      </c>
+      <c r="E314">
+        <v>4</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>11</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>55</v>
+      </c>
+      <c r="C315">
+        <v>4</v>
+      </c>
+      <c r="D315">
+        <v>5</v>
+      </c>
+      <c r="E315">
+        <v>5</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>11</v>
+      </c>
+      <c r="L315">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L189" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L293" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1294" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA619589-7117-4510-B29E-EEB876A99789}"/>
+  <xr:revisionPtr revIDLastSave="1422" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5002BE16-5341-44CD-8AEB-D968CD2EE124}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="69">
   <si>
     <t>Boneco</t>
   </si>
@@ -572,11 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O315"/>
+  <dimension ref="A1:O338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I315" sqref="I315"/>
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11632,6 +11632,811 @@
         <v>0</v>
       </c>
     </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>5</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>3</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317">
+        <v>5</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+      <c r="L317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>3</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318">
+        <v>5</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>21</v>
+      </c>
+      <c r="C319">
+        <v>3</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319">
+        <v>5</v>
+      </c>
+      <c r="F319">
+        <v>3</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>23</v>
+      </c>
+      <c r="C320">
+        <v>3</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320">
+        <v>5</v>
+      </c>
+      <c r="F320">
+        <v>3</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>0</v>
+      </c>
+      <c r="L320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>36</v>
+      </c>
+      <c r="C321">
+        <v>4</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+      <c r="E321">
+        <v>3</v>
+      </c>
+      <c r="F321">
+        <v>3</v>
+      </c>
+      <c r="G321">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+      <c r="L321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>33</v>
+      </c>
+      <c r="C322">
+        <v>4</v>
+      </c>
+      <c r="D322">
+        <v>2</v>
+      </c>
+      <c r="E322">
+        <v>3</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>1</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>31</v>
+      </c>
+      <c r="C323">
+        <v>4</v>
+      </c>
+      <c r="D323">
+        <v>2</v>
+      </c>
+      <c r="E323">
+        <v>3</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>34</v>
+      </c>
+      <c r="C324">
+        <v>4</v>
+      </c>
+      <c r="D324">
+        <v>2</v>
+      </c>
+      <c r="E324">
+        <v>3</v>
+      </c>
+      <c r="F324">
+        <v>2</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>27</v>
+      </c>
+      <c r="C325">
+        <v>4</v>
+      </c>
+      <c r="D325">
+        <v>2</v>
+      </c>
+      <c r="E325">
+        <v>3</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>57</v>
+      </c>
+      <c r="C326">
+        <v>6</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326">
+        <v>3</v>
+      </c>
+      <c r="F326">
+        <v>4</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>49</v>
+      </c>
+      <c r="C327">
+        <v>6</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>3</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328">
+        <v>6</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328">
+        <v>3</v>
+      </c>
+      <c r="F328">
+        <v>3</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>1</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>28</v>
+      </c>
+      <c r="C329">
+        <v>6</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329">
+        <v>3</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <v>6</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>3</v>
+      </c>
+      <c r="F330">
+        <v>2</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>3</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>5</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>1</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332">
+        <v>3</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>5</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333">
+        <v>3</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>5</v>
+      </c>
+      <c r="F333">
+        <v>2</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>20</v>
+      </c>
+      <c r="C334">
+        <v>3</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>5</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>47</v>
+      </c>
+      <c r="C335">
+        <v>3</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>5</v>
+      </c>
+      <c r="F335">
+        <v>2</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+      <c r="L335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>17</v>
+      </c>
+      <c r="C336">
+        <v>6</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>5</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>8</v>
+      </c>
+      <c r="L336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>55</v>
+      </c>
+      <c r="C337">
+        <v>7</v>
+      </c>
+      <c r="D337">
+        <v>2</v>
+      </c>
+      <c r="E337">
+        <v>4</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>8</v>
+      </c>
+      <c r="L337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>45</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>6</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>11</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L293" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1422" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5002BE16-5341-44CD-8AEB-D968CD2EE124}"/>
+  <xr:revisionPtr revIDLastSave="1549" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20092EAC-9A6E-46B6-BC9B-0D80A015713D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="70">
   <si>
     <t>Boneco</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Leo</t>
+  </si>
+  <si>
+    <t>Filipe</t>
   </si>
 </sst>
 </file>
@@ -572,11 +575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O338"/>
+  <dimension ref="A1:O361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A338" sqref="A338"/>
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K361" sqref="K361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12437,6 +12440,811 @@
         <v>0</v>
       </c>
     </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>20</v>
+      </c>
+      <c r="C339">
+        <v>5</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>4</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>23</v>
+      </c>
+      <c r="C340">
+        <v>5</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>4</v>
+      </c>
+      <c r="F340">
+        <v>2</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>52</v>
+      </c>
+      <c r="C341">
+        <v>5</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>4</v>
+      </c>
+      <c r="F341">
+        <v>4</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>30</v>
+      </c>
+      <c r="C342">
+        <v>5</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>4</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>34</v>
+      </c>
+      <c r="C343">
+        <v>5</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>4</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>69</v>
+      </c>
+      <c r="C344">
+        <v>8</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>3</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>8</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>3</v>
+      </c>
+      <c r="F345">
+        <v>2</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>28</v>
+      </c>
+      <c r="C346">
+        <v>8</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>3</v>
+      </c>
+      <c r="F346">
+        <v>3</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>29</v>
+      </c>
+      <c r="C347">
+        <v>8</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>3</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+      <c r="G347">
+        <v>1</v>
+      </c>
+      <c r="H347">
+        <v>1</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348">
+        <v>8</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>3</v>
+      </c>
+      <c r="F348">
+        <v>5</v>
+      </c>
+      <c r="G348">
+        <v>1</v>
+      </c>
+      <c r="H348">
+        <v>1</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>1</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>57</v>
+      </c>
+      <c r="C349">
+        <v>3</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>5</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>5</v>
+      </c>
+      <c r="F350">
+        <v>4</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>38</v>
+      </c>
+      <c r="C351">
+        <v>3</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>5</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>3</v>
+      </c>
+      <c r="C352">
+        <v>3</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>5</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>1</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>3</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>5</v>
+      </c>
+      <c r="F353">
+        <v>2</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>33</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>5</v>
+      </c>
+      <c r="F354">
+        <v>2</v>
+      </c>
+      <c r="G354">
+        <v>1</v>
+      </c>
+      <c r="H354">
+        <v>0</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>26</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>5</v>
+      </c>
+      <c r="F355">
+        <v>1</v>
+      </c>
+      <c r="G355">
+        <v>1</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>27</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>5</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>49</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>5</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>5</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>1</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>17</v>
+      </c>
+      <c r="C359">
+        <v>5</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>5</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>11</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>55</v>
+      </c>
+      <c r="C360">
+        <v>9</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>3</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>9</v>
+      </c>
+      <c r="L360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>47</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>7</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>12</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L293" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1549" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20092EAC-9A6E-46B6-BC9B-0D80A015713D}"/>
+  <xr:revisionPtr revIDLastSave="1655" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{317A2C47-7887-42C8-8C70-F4CA5E280555}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="73">
   <si>
     <t>Boneco</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>Filipe</t>
+  </si>
+  <si>
+    <t>Joãozinho</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Danilo</t>
   </si>
 </sst>
 </file>
@@ -575,11 +584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O361"/>
+  <dimension ref="A1:O385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K361" sqref="K361"/>
+      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G385" sqref="G385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13245,6 +13254,846 @@
         <v>0</v>
       </c>
     </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>20</v>
+      </c>
+      <c r="C362">
+        <v>4</v>
+      </c>
+      <c r="D362">
+        <v>3</v>
+      </c>
+      <c r="E362">
+        <v>2</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>34</v>
+      </c>
+      <c r="C363">
+        <v>4</v>
+      </c>
+      <c r="D363">
+        <v>3</v>
+      </c>
+      <c r="E363">
+        <v>2</v>
+      </c>
+      <c r="F363">
+        <v>3</v>
+      </c>
+      <c r="G363">
+        <v>1</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>30</v>
+      </c>
+      <c r="C364">
+        <v>4</v>
+      </c>
+      <c r="D364">
+        <v>3</v>
+      </c>
+      <c r="E364">
+        <v>2</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+      <c r="G364">
+        <v>1</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>38</v>
+      </c>
+      <c r="C365">
+        <v>4</v>
+      </c>
+      <c r="D365">
+        <v>3</v>
+      </c>
+      <c r="E365">
+        <v>2</v>
+      </c>
+      <c r="F365">
+        <v>3</v>
+      </c>
+      <c r="G365">
+        <v>1</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>26</v>
+      </c>
+      <c r="C366">
+        <v>4</v>
+      </c>
+      <c r="D366">
+        <v>3</v>
+      </c>
+      <c r="E366">
+        <v>2</v>
+      </c>
+      <c r="F366">
+        <v>1</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>17</v>
+      </c>
+      <c r="C367">
+        <v>4</v>
+      </c>
+      <c r="D367">
+        <v>3</v>
+      </c>
+      <c r="E367">
+        <v>2</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>6</v>
+      </c>
+      <c r="L367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>21</v>
+      </c>
+      <c r="C368">
+        <v>5</v>
+      </c>
+      <c r="D368">
+        <v>2</v>
+      </c>
+      <c r="E368">
+        <v>3</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>1</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369">
+        <v>5</v>
+      </c>
+      <c r="D369">
+        <v>2</v>
+      </c>
+      <c r="E369">
+        <v>3</v>
+      </c>
+      <c r="F369">
+        <v>1</v>
+      </c>
+      <c r="G369">
+        <v>1</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>27</v>
+      </c>
+      <c r="C370">
+        <v>5</v>
+      </c>
+      <c r="D370">
+        <v>2</v>
+      </c>
+      <c r="E370">
+        <v>3</v>
+      </c>
+      <c r="F370">
+        <v>2</v>
+      </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>0</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>5</v>
+      </c>
+      <c r="D371">
+        <v>2</v>
+      </c>
+      <c r="E371">
+        <v>3</v>
+      </c>
+      <c r="F371">
+        <v>2</v>
+      </c>
+      <c r="G371">
+        <v>1</v>
+      </c>
+      <c r="H371">
+        <v>1</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>6</v>
+      </c>
+      <c r="C372">
+        <v>5</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+      <c r="E372">
+        <v>3</v>
+      </c>
+      <c r="F372">
+        <v>2</v>
+      </c>
+      <c r="G372">
+        <v>1</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>1</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>55</v>
+      </c>
+      <c r="C373">
+        <v>5</v>
+      </c>
+      <c r="D373">
+        <v>2</v>
+      </c>
+      <c r="E373">
+        <v>3</v>
+      </c>
+      <c r="F373">
+        <v>2</v>
+      </c>
+      <c r="G373">
+        <v>1</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>9</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>70</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>5</v>
+      </c>
+      <c r="F374">
+        <v>1</v>
+      </c>
+      <c r="G374">
+        <v>1</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>33</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>5</v>
+      </c>
+      <c r="F375">
+        <v>1</v>
+      </c>
+      <c r="G375">
+        <v>1</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>5</v>
+      </c>
+      <c r="F376">
+        <v>4</v>
+      </c>
+      <c r="G376">
+        <v>1</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>2</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+      <c r="E377">
+        <v>5</v>
+      </c>
+      <c r="F377">
+        <v>3</v>
+      </c>
+      <c r="G377">
+        <v>1</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>71</v>
+      </c>
+      <c r="C378">
+        <v>2</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>5</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>1</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>47</v>
+      </c>
+      <c r="C379">
+        <v>2</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>5</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+      <c r="I379">
+        <v>1</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>11</v>
+      </c>
+      <c r="L379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>4</v>
+      </c>
+      <c r="E380">
+        <v>2</v>
+      </c>
+      <c r="F380">
+        <v>2</v>
+      </c>
+      <c r="G380">
+        <v>1</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>72</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>4</v>
+      </c>
+      <c r="E381">
+        <v>2</v>
+      </c>
+      <c r="F381">
+        <v>1</v>
+      </c>
+      <c r="G381">
+        <v>1</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>4</v>
+      </c>
+      <c r="E382">
+        <v>2</v>
+      </c>
+      <c r="F382">
+        <v>2</v>
+      </c>
+      <c r="G382">
+        <v>1</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>23</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>4</v>
+      </c>
+      <c r="E383">
+        <v>2</v>
+      </c>
+      <c r="F383">
+        <v>2</v>
+      </c>
+      <c r="G383">
+        <v>1</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>25</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>4</v>
+      </c>
+      <c r="E384">
+        <v>2</v>
+      </c>
+      <c r="F384">
+        <v>1</v>
+      </c>
+      <c r="G384">
+        <v>1</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>65</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>4</v>
+      </c>
+      <c r="E385">
+        <v>2</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>1</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>7</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L293" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1655" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{317A2C47-7887-42C8-8C70-F4CA5E280555}"/>
+  <xr:revisionPtr revIDLastSave="1780" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{582621CF-2A6F-443B-91B4-DCF7BBBB48B1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="74">
   <si>
     <t>Boneco</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Danilo</t>
+  </si>
+  <si>
+    <t>Igor PRF</t>
   </si>
 </sst>
 </file>
@@ -584,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O385"/>
+  <dimension ref="A1:O408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G385" sqref="G385"/>
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K408" sqref="K408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14094,6 +14097,811 @@
         <v>0</v>
       </c>
     </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>20</v>
+      </c>
+      <c r="C386">
+        <v>10</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>3</v>
+      </c>
+      <c r="F386">
+        <v>2</v>
+      </c>
+      <c r="G386">
+        <v>1</v>
+      </c>
+      <c r="H386">
+        <v>1</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>34</v>
+      </c>
+      <c r="C387">
+        <v>10</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>3</v>
+      </c>
+      <c r="F387">
+        <v>4</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387">
+        <v>1</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>70</v>
+      </c>
+      <c r="C388">
+        <v>10</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>3</v>
+      </c>
+      <c r="F388">
+        <v>4</v>
+      </c>
+      <c r="G388">
+        <v>1</v>
+      </c>
+      <c r="H388">
+        <v>1</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>1</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>10</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>3</v>
+      </c>
+      <c r="F389">
+        <v>4</v>
+      </c>
+      <c r="G389">
+        <v>1</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>38</v>
+      </c>
+      <c r="C390">
+        <v>10</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>3</v>
+      </c>
+      <c r="F390">
+        <v>1</v>
+      </c>
+      <c r="G390">
+        <v>1</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391">
+        <v>3</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <v>4</v>
+      </c>
+      <c r="F391">
+        <v>1</v>
+      </c>
+      <c r="G391">
+        <v>1</v>
+      </c>
+      <c r="H391">
+        <v>0</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>57</v>
+      </c>
+      <c r="C392">
+        <v>3</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>4</v>
+      </c>
+      <c r="F392">
+        <v>1</v>
+      </c>
+      <c r="G392">
+        <v>1</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+      <c r="L392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>36</v>
+      </c>
+      <c r="C393">
+        <v>3</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>4</v>
+      </c>
+      <c r="F393">
+        <v>5</v>
+      </c>
+      <c r="G393">
+        <v>1</v>
+      </c>
+      <c r="H393">
+        <v>0</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>43</v>
+      </c>
+      <c r="C394">
+        <v>3</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>4</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+      <c r="H394">
+        <v>0</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
+      <c r="L394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+      <c r="C395">
+        <v>3</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>4</v>
+      </c>
+      <c r="F395">
+        <v>1</v>
+      </c>
+      <c r="G395">
+        <v>1</v>
+      </c>
+      <c r="H395">
+        <v>0</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
+      <c r="L395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>25</v>
+      </c>
+      <c r="C396">
+        <v>4</v>
+      </c>
+      <c r="D396">
+        <v>2</v>
+      </c>
+      <c r="E396">
+        <v>3</v>
+      </c>
+      <c r="F396">
+        <v>3</v>
+      </c>
+      <c r="G396">
+        <v>1</v>
+      </c>
+      <c r="H396">
+        <v>0</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+      <c r="L396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>73</v>
+      </c>
+      <c r="C397">
+        <v>4</v>
+      </c>
+      <c r="D397">
+        <v>2</v>
+      </c>
+      <c r="E397">
+        <v>3</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>1</v>
+      </c>
+      <c r="H397">
+        <v>0</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>0</v>
+      </c>
+      <c r="L397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>23</v>
+      </c>
+      <c r="C398">
+        <v>4</v>
+      </c>
+      <c r="D398">
+        <v>2</v>
+      </c>
+      <c r="E398">
+        <v>3</v>
+      </c>
+      <c r="F398">
+        <v>5</v>
+      </c>
+      <c r="G398">
+        <v>1</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+      <c r="L398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>27</v>
+      </c>
+      <c r="C399">
+        <v>4</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+      <c r="E399">
+        <v>3</v>
+      </c>
+      <c r="F399">
+        <v>1</v>
+      </c>
+      <c r="G399">
+        <v>1</v>
+      </c>
+      <c r="H399">
+        <v>0</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+      <c r="L399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>33</v>
+      </c>
+      <c r="C400">
+        <v>4</v>
+      </c>
+      <c r="D400">
+        <v>2</v>
+      </c>
+      <c r="E400">
+        <v>3</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400">
+        <v>1</v>
+      </c>
+      <c r="H400">
+        <v>0</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>29</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+      <c r="E401">
+        <v>5</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="G401">
+        <v>1</v>
+      </c>
+      <c r="H401">
+        <v>0</v>
+      </c>
+      <c r="I401">
+        <v>1</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>63</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>2</v>
+      </c>
+      <c r="E402">
+        <v>5</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+      <c r="G402">
+        <v>1</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>28</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403">
+        <v>5</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="G403">
+        <v>1</v>
+      </c>
+      <c r="H403">
+        <v>0</v>
+      </c>
+      <c r="I403">
+        <v>1</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+      <c r="L403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>2</v>
+      </c>
+      <c r="E404">
+        <v>5</v>
+      </c>
+      <c r="F404">
+        <v>1</v>
+      </c>
+      <c r="G404">
+        <v>1</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+      <c r="I404">
+        <v>1</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>30</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
+      <c r="E405">
+        <v>5</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+      <c r="G405">
+        <v>1</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+      <c r="I405">
+        <v>1</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+      <c r="L405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>17</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406">
+        <v>3</v>
+      </c>
+      <c r="E406">
+        <v>6</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406">
+        <v>1</v>
+      </c>
+      <c r="H406">
+        <v>0</v>
+      </c>
+      <c r="I406">
+        <v>1</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>13</v>
+      </c>
+      <c r="L406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>47</v>
+      </c>
+      <c r="C407">
+        <v>7</v>
+      </c>
+      <c r="D407">
+        <v>2</v>
+      </c>
+      <c r="E407">
+        <v>5</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+      <c r="G407">
+        <v>1</v>
+      </c>
+      <c r="H407">
+        <v>1</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>8</v>
+      </c>
+      <c r="L407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>55</v>
+      </c>
+      <c r="C408">
+        <v>7</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>5</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408">
+        <v>1</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>9</v>
+      </c>
+      <c r="L408">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L293" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1780" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{582621CF-2A6F-443B-91B4-DCF7BBBB48B1}"/>
+  <xr:revisionPtr revIDLastSave="1783" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C2AC3F-3069-431B-8F22-C0C47023A4AB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294862154" uniqueCount="4294967292">
   <si>
     <t>Boneco</t>
   </si>
@@ -587,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O408"/>
+  <dimension ref="A1:O409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K408" sqref="K408"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C391" sqref="C391:L391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14274,16 +14274,16 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C391">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D391">
         <v>1</v>
       </c>
       <c r="E391">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F391">
         <v>1</v>
@@ -14292,7 +14292,7 @@
         <v>1</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391">
         <v>0</v>
@@ -14309,7 +14309,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="C392">
         <v>3</v>
@@ -14344,7 +14344,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C393">
         <v>3</v>
@@ -14356,7 +14356,7 @@
         <v>4</v>
       </c>
       <c r="F393">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G393">
         <v>1</v>
@@ -14379,7 +14379,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C394">
         <v>3</v>
@@ -14391,7 +14391,7 @@
         <v>4</v>
       </c>
       <c r="F394">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G394">
         <v>1</v>
@@ -14414,7 +14414,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C395">
         <v>3</v>
@@ -14426,7 +14426,7 @@
         <v>4</v>
       </c>
       <c r="F395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G395">
         <v>1</v>
@@ -14449,19 +14449,19 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C396">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D396">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E396">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F396">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G396">
         <v>1</v>
@@ -14484,7 +14484,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C397">
         <v>4</v>
@@ -14496,7 +14496,7 @@
         <v>3</v>
       </c>
       <c r="F397">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G397">
         <v>1</v>
@@ -14519,7 +14519,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="C398">
         <v>4</v>
@@ -14531,7 +14531,7 @@
         <v>3</v>
       </c>
       <c r="F398">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G398">
         <v>1</v>
@@ -14554,7 +14554,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C399">
         <v>4</v>
@@ -14566,7 +14566,7 @@
         <v>3</v>
       </c>
       <c r="F399">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G399">
         <v>1</v>
@@ -14589,7 +14589,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C400">
         <v>4</v>
@@ -14601,7 +14601,7 @@
         <v>3</v>
       </c>
       <c r="F400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G400">
         <v>1</v>
@@ -14624,16 +14624,16 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C401">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D401">
         <v>2</v>
       </c>
       <c r="E401">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F401">
         <v>0</v>
@@ -14645,7 +14645,7 @@
         <v>0</v>
       </c>
       <c r="I401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J401">
         <v>0</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -14694,7 +14694,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -14741,7 +14741,7 @@
         <v>5</v>
       </c>
       <c r="F404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G404">
         <v>1</v>
@@ -14764,7 +14764,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -14776,7 +14776,7 @@
         <v>5</v>
       </c>
       <c r="F405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G405">
         <v>1</v>
@@ -14799,16 +14799,16 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C406">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D406">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E406">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F406">
         <v>0</v>
@@ -14826,24 +14826,24 @@
         <v>0</v>
       </c>
       <c r="K406">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C407">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D407">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E407">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F407">
         <v>0</v>
@@ -14852,30 +14852,30 @@
         <v>1</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J407">
         <v>0</v>
       </c>
       <c r="K407">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C408">
         <v>7</v>
       </c>
       <c r="D408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E408">
         <v>5</v>
@@ -14887,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I408">
         <v>0</v>
@@ -14896,9 +14896,44 @@
         <v>0</v>
       </c>
       <c r="K408">
+        <v>8</v>
+      </c>
+      <c r="L408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>55</v>
+      </c>
+      <c r="C409">
+        <v>7</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>5</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409">
+        <v>1</v>
+      </c>
+      <c r="H409">
+        <v>0</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
         <v>9</v>
       </c>
-      <c r="L408">
+      <c r="L409">
         <v>0</v>
       </c>
     </row>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1783" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C2AC3F-3069-431B-8F22-C0C47023A4AB}"/>
+  <xr:revisionPtr revIDLastSave="1892" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{829C1143-3103-4B06-8380-5BC973D42474}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294862154" uniqueCount="4294967292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="76">
   <si>
     <t>Boneco</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Igor PRF</t>
+  </si>
+  <si>
+    <t>Babão</t>
+  </si>
+  <si>
+    <t>Vicente</t>
   </si>
 </sst>
 </file>
@@ -587,11 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O409"/>
+  <dimension ref="A1:O433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C391" sqref="C391:L391"/>
+      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K434" sqref="K434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14937,6 +14943,846 @@
         <v>0</v>
       </c>
     </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>23</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>3</v>
+      </c>
+      <c r="E410">
+        <v>3</v>
+      </c>
+      <c r="F410">
+        <v>2</v>
+      </c>
+      <c r="G410">
+        <v>1</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>4</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>3</v>
+      </c>
+      <c r="E411">
+        <v>3</v>
+      </c>
+      <c r="F411">
+        <v>1</v>
+      </c>
+      <c r="G411">
+        <v>1</v>
+      </c>
+      <c r="H411">
+        <v>0</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>29</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>3</v>
+      </c>
+      <c r="E412">
+        <v>3</v>
+      </c>
+      <c r="F412">
+        <v>1</v>
+      </c>
+      <c r="G412">
+        <v>1</v>
+      </c>
+      <c r="H412">
+        <v>0</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>21</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>3</v>
+      </c>
+      <c r="E413">
+        <v>3</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+      <c r="G413">
+        <v>1</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>3</v>
+      </c>
+      <c r="E414">
+        <v>3</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414">
+        <v>1</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+      <c r="L414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>47</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>3</v>
+      </c>
+      <c r="E415">
+        <v>3</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415">
+        <v>1</v>
+      </c>
+      <c r="H415">
+        <v>0</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>8</v>
+      </c>
+      <c r="L415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>74</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>2</v>
+      </c>
+      <c r="E416">
+        <v>5</v>
+      </c>
+      <c r="F416">
+        <v>1</v>
+      </c>
+      <c r="G416">
+        <v>1</v>
+      </c>
+      <c r="H416">
+        <v>0</v>
+      </c>
+      <c r="I416">
+        <v>1</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>41</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417">
+        <v>2</v>
+      </c>
+      <c r="E417">
+        <v>5</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+      <c r="G417">
+        <v>1</v>
+      </c>
+      <c r="H417">
+        <v>0</v>
+      </c>
+      <c r="I417">
+        <v>1</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>30</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418">
+        <v>2</v>
+      </c>
+      <c r="E418">
+        <v>5</v>
+      </c>
+      <c r="F418">
+        <v>1</v>
+      </c>
+      <c r="G418">
+        <v>1</v>
+      </c>
+      <c r="H418">
+        <v>0</v>
+      </c>
+      <c r="I418">
+        <v>1</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>7</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419">
+        <v>2</v>
+      </c>
+      <c r="E419">
+        <v>5</v>
+      </c>
+      <c r="F419">
+        <v>1</v>
+      </c>
+      <c r="G419">
+        <v>1</v>
+      </c>
+      <c r="H419">
+        <v>0</v>
+      </c>
+      <c r="I419">
+        <v>1</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+      <c r="L419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>20</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>2</v>
+      </c>
+      <c r="E420">
+        <v>5</v>
+      </c>
+      <c r="F420">
+        <v>1</v>
+      </c>
+      <c r="G420">
+        <v>1</v>
+      </c>
+      <c r="H420">
+        <v>0</v>
+      </c>
+      <c r="I420">
+        <v>1</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420">
+        <v>0</v>
+      </c>
+      <c r="L420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>17</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>2</v>
+      </c>
+      <c r="E421">
+        <v>5</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+      <c r="G421">
+        <v>1</v>
+      </c>
+      <c r="H421">
+        <v>0</v>
+      </c>
+      <c r="I421">
+        <v>1</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>11</v>
+      </c>
+      <c r="L421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>70</v>
+      </c>
+      <c r="C422">
+        <v>5</v>
+      </c>
+      <c r="D422">
+        <v>2</v>
+      </c>
+      <c r="E422">
+        <v>3</v>
+      </c>
+      <c r="F422">
+        <v>3</v>
+      </c>
+      <c r="G422">
+        <v>1</v>
+      </c>
+      <c r="H422">
+        <v>0</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+      <c r="K422">
+        <v>0</v>
+      </c>
+      <c r="L422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>51</v>
+      </c>
+      <c r="C423">
+        <v>5</v>
+      </c>
+      <c r="D423">
+        <v>2</v>
+      </c>
+      <c r="E423">
+        <v>3</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423">
+        <v>1</v>
+      </c>
+      <c r="H423">
+        <v>0</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>0</v>
+      </c>
+      <c r="L423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>5</v>
+      </c>
+      <c r="D424">
+        <v>2</v>
+      </c>
+      <c r="E424">
+        <v>3</v>
+      </c>
+      <c r="F424">
+        <v>4</v>
+      </c>
+      <c r="G424">
+        <v>1</v>
+      </c>
+      <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+      <c r="L424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>57</v>
+      </c>
+      <c r="C425">
+        <v>5</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
+      <c r="E425">
+        <v>3</v>
+      </c>
+      <c r="F425">
+        <v>3</v>
+      </c>
+      <c r="G425">
+        <v>1</v>
+      </c>
+      <c r="H425">
+        <v>0</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+      <c r="L425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>26</v>
+      </c>
+      <c r="C426">
+        <v>5</v>
+      </c>
+      <c r="D426">
+        <v>2</v>
+      </c>
+      <c r="E426">
+        <v>3</v>
+      </c>
+      <c r="F426">
+        <v>1</v>
+      </c>
+      <c r="G426">
+        <v>1</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+      <c r="L426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>44</v>
+      </c>
+      <c r="C427">
+        <v>5</v>
+      </c>
+      <c r="D427">
+        <v>2</v>
+      </c>
+      <c r="E427">
+        <v>3</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>1</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>8</v>
+      </c>
+      <c r="L427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>69</v>
+      </c>
+      <c r="C428">
+        <v>7</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+      <c r="E428">
+        <v>3</v>
+      </c>
+      <c r="F428">
+        <v>1</v>
+      </c>
+      <c r="G428">
+        <v>1</v>
+      </c>
+      <c r="H428">
+        <v>1</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+      <c r="L428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>27</v>
+      </c>
+      <c r="C429">
+        <v>7</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>3</v>
+      </c>
+      <c r="F429">
+        <v>3</v>
+      </c>
+      <c r="G429">
+        <v>1</v>
+      </c>
+      <c r="H429">
+        <v>1</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>0</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>75</v>
+      </c>
+      <c r="C430">
+        <v>7</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+      <c r="E430">
+        <v>3</v>
+      </c>
+      <c r="F430">
+        <v>1</v>
+      </c>
+      <c r="G430">
+        <v>1</v>
+      </c>
+      <c r="H430">
+        <v>1</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+      <c r="L430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>3</v>
+      </c>
+      <c r="C431">
+        <v>7</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>3</v>
+      </c>
+      <c r="F431">
+        <v>1</v>
+      </c>
+      <c r="G431">
+        <v>1</v>
+      </c>
+      <c r="H431">
+        <v>1</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0</v>
+      </c>
+      <c r="L431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432">
+        <v>7</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+      <c r="E432">
+        <v>3</v>
+      </c>
+      <c r="F432">
+        <v>6</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>1</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>1</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+      <c r="L432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>55</v>
+      </c>
+      <c r="C433">
+        <v>7</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>3</v>
+      </c>
+      <c r="F433">
+        <v>2</v>
+      </c>
+      <c r="G433">
+        <v>1</v>
+      </c>
+      <c r="H433">
+        <v>1</v>
+      </c>
+      <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>7</v>
+      </c>
+      <c r="L433">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L293" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1892" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{829C1143-3103-4B06-8380-5BC973D42474}"/>
+  <xr:revisionPtr revIDLastSave="2006" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40C5B863-E8C5-4DED-8AF6-3678AC19180A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="78">
   <si>
     <t>Boneco</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Vicente</t>
+  </si>
+  <si>
+    <t>Mumu</t>
+  </si>
+  <si>
+    <t>Fabricio</t>
   </si>
 </sst>
 </file>
@@ -593,11 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O433"/>
+  <dimension ref="A1:O455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K434" sqref="K434"/>
+      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K456" sqref="K456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15783,6 +15789,776 @@
         <v>1</v>
       </c>
     </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>76</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434">
+        <v>3</v>
+      </c>
+      <c r="E434">
+        <v>3</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+      <c r="G434">
+        <v>1</v>
+      </c>
+      <c r="H434">
+        <v>0</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>0</v>
+      </c>
+      <c r="L434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>25</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+      <c r="D435">
+        <v>3</v>
+      </c>
+      <c r="E435">
+        <v>3</v>
+      </c>
+      <c r="F435">
+        <v>1</v>
+      </c>
+      <c r="G435">
+        <v>1</v>
+      </c>
+      <c r="H435">
+        <v>0</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>33</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+      <c r="D436">
+        <v>3</v>
+      </c>
+      <c r="E436">
+        <v>3</v>
+      </c>
+      <c r="F436">
+        <v>1</v>
+      </c>
+      <c r="G436">
+        <v>1</v>
+      </c>
+      <c r="H436">
+        <v>0</v>
+      </c>
+      <c r="I436">
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+      <c r="L436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>57</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+      <c r="D437">
+        <v>3</v>
+      </c>
+      <c r="E437">
+        <v>3</v>
+      </c>
+      <c r="F437">
+        <v>1</v>
+      </c>
+      <c r="G437">
+        <v>1</v>
+      </c>
+      <c r="H437">
+        <v>0</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>0</v>
+      </c>
+      <c r="L437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>23</v>
+      </c>
+      <c r="C438">
+        <v>2</v>
+      </c>
+      <c r="D438">
+        <v>3</v>
+      </c>
+      <c r="E438">
+        <v>3</v>
+      </c>
+      <c r="F438">
+        <v>1</v>
+      </c>
+      <c r="G438">
+        <v>1</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+      <c r="L438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>27</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439">
+        <v>5</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+      <c r="G439">
+        <v>1</v>
+      </c>
+      <c r="H439">
+        <v>0</v>
+      </c>
+      <c r="I439">
+        <v>1</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>0</v>
+      </c>
+      <c r="L439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>77</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>5</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>1</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+      <c r="I440">
+        <v>1</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+      <c r="L440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>1</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441">
+        <v>5</v>
+      </c>
+      <c r="F441">
+        <v>2</v>
+      </c>
+      <c r="G441">
+        <v>1</v>
+      </c>
+      <c r="H441">
+        <v>0</v>
+      </c>
+      <c r="I441">
+        <v>1</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>0</v>
+      </c>
+      <c r="L441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>26</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442">
+        <v>5</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+      <c r="G442">
+        <v>1</v>
+      </c>
+      <c r="H442">
+        <v>0</v>
+      </c>
+      <c r="I442">
+        <v>1</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>0</v>
+      </c>
+      <c r="L442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>28</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>5</v>
+      </c>
+      <c r="F443">
+        <v>1</v>
+      </c>
+      <c r="G443">
+        <v>1</v>
+      </c>
+      <c r="H443">
+        <v>0</v>
+      </c>
+      <c r="I443">
+        <v>1</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444">
+        <v>3</v>
+      </c>
+      <c r="D444">
+        <v>3</v>
+      </c>
+      <c r="E444">
+        <v>2</v>
+      </c>
+      <c r="F444">
+        <v>1</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+      <c r="H444">
+        <v>0</v>
+      </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>70</v>
+      </c>
+      <c r="C445">
+        <v>3</v>
+      </c>
+      <c r="D445">
+        <v>3</v>
+      </c>
+      <c r="E445">
+        <v>2</v>
+      </c>
+      <c r="F445">
+        <v>5</v>
+      </c>
+      <c r="G445">
+        <v>1</v>
+      </c>
+      <c r="H445">
+        <v>0</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
+      <c r="L445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>69</v>
+      </c>
+      <c r="C446">
+        <v>3</v>
+      </c>
+      <c r="D446">
+        <v>3</v>
+      </c>
+      <c r="E446">
+        <v>2</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446">
+        <v>1</v>
+      </c>
+      <c r="H446">
+        <v>0</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>0</v>
+      </c>
+      <c r="L446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>30</v>
+      </c>
+      <c r="C447">
+        <v>3</v>
+      </c>
+      <c r="D447">
+        <v>3</v>
+      </c>
+      <c r="E447">
+        <v>2</v>
+      </c>
+      <c r="F447">
+        <v>2</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>0</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>20</v>
+      </c>
+      <c r="C448">
+        <v>3</v>
+      </c>
+      <c r="D448">
+        <v>3</v>
+      </c>
+      <c r="E448">
+        <v>2</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+      <c r="G448">
+        <v>1</v>
+      </c>
+      <c r="H448">
+        <v>0</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>3</v>
+      </c>
+      <c r="C449">
+        <v>6</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449">
+        <v>2</v>
+      </c>
+      <c r="F449">
+        <v>1</v>
+      </c>
+      <c r="G449">
+        <v>1</v>
+      </c>
+      <c r="H449">
+        <v>1</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>1</v>
+      </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
+      <c r="L449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>5</v>
+      </c>
+      <c r="C450">
+        <v>6</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>2</v>
+      </c>
+      <c r="F450">
+        <v>3</v>
+      </c>
+      <c r="G450">
+        <v>1</v>
+      </c>
+      <c r="H450">
+        <v>1</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
+      <c r="L450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>6</v>
+      </c>
+      <c r="C451">
+        <v>6</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451">
+        <v>2</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+      <c r="G451">
+        <v>1</v>
+      </c>
+      <c r="H451">
+        <v>1</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+      <c r="L451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>4</v>
+      </c>
+      <c r="C452">
+        <v>6</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452">
+        <v>2</v>
+      </c>
+      <c r="F452">
+        <v>4</v>
+      </c>
+      <c r="G452">
+        <v>1</v>
+      </c>
+      <c r="H452">
+        <v>1</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0</v>
+      </c>
+      <c r="L452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>35</v>
+      </c>
+      <c r="C453">
+        <v>6</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <v>2</v>
+      </c>
+      <c r="F453">
+        <v>3</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
+      <c r="H453">
+        <v>1</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>0</v>
+      </c>
+      <c r="L453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>17</v>
+      </c>
+      <c r="C454">
+        <v>6</v>
+      </c>
+      <c r="D454">
+        <v>4</v>
+      </c>
+      <c r="E454">
+        <v>7</v>
+      </c>
+      <c r="F454">
+        <v>1</v>
+      </c>
+      <c r="G454">
+        <v>1</v>
+      </c>
+      <c r="H454">
+        <v>0</v>
+      </c>
+      <c r="I454">
+        <v>1</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>14</v>
+      </c>
+      <c r="L454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>55</v>
+      </c>
+      <c r="C455">
+        <v>7</v>
+      </c>
+      <c r="D455">
+        <v>4</v>
+      </c>
+      <c r="E455">
+        <v>6</v>
+      </c>
+      <c r="F455">
+        <v>1</v>
+      </c>
+      <c r="G455">
+        <v>1</v>
+      </c>
+      <c r="H455">
+        <v>1</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>11</v>
+      </c>
+      <c r="L455">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L293" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2006" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40C5B863-E8C5-4DED-8AF6-3678AC19180A}"/>
+  <xr:revisionPtr revIDLastSave="2141" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{716F907B-A0EE-4ACA-BFAF-AC65DE1461B4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$L$293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogadores!$A$1:$L$455</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="78">
   <si>
     <t>Boneco</t>
   </si>
@@ -599,11 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O455"/>
+  <dimension ref="A1:O478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K456" sqref="K456"/>
+      <pane ySplit="1" topLeftCell="A463" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K478" sqref="K478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16559,8 +16559,813 @@
         <v>1</v>
       </c>
     </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>23</v>
+      </c>
+      <c r="C456">
+        <v>6</v>
+      </c>
+      <c r="D456">
+        <v>2</v>
+      </c>
+      <c r="E456">
+        <v>2</v>
+      </c>
+      <c r="F456">
+        <v>2</v>
+      </c>
+      <c r="G456">
+        <v>1</v>
+      </c>
+      <c r="H456">
+        <v>1</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
+      <c r="L456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>4</v>
+      </c>
+      <c r="C457">
+        <v>6</v>
+      </c>
+      <c r="D457">
+        <v>2</v>
+      </c>
+      <c r="E457">
+        <v>2</v>
+      </c>
+      <c r="F457">
+        <v>3</v>
+      </c>
+      <c r="G457">
+        <v>1</v>
+      </c>
+      <c r="H457">
+        <v>1</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
+      <c r="L457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>3</v>
+      </c>
+      <c r="C458">
+        <v>6</v>
+      </c>
+      <c r="D458">
+        <v>2</v>
+      </c>
+      <c r="E458">
+        <v>2</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+      <c r="G458">
+        <v>1</v>
+      </c>
+      <c r="H458">
+        <v>1</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
+      <c r="L458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>26</v>
+      </c>
+      <c r="C459">
+        <v>6</v>
+      </c>
+      <c r="D459">
+        <v>2</v>
+      </c>
+      <c r="E459">
+        <v>2</v>
+      </c>
+      <c r="F459">
+        <v>0</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+      <c r="H459">
+        <v>1</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
+      <c r="L459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>39</v>
+      </c>
+      <c r="C460">
+        <v>6</v>
+      </c>
+      <c r="D460">
+        <v>2</v>
+      </c>
+      <c r="E460">
+        <v>2</v>
+      </c>
+      <c r="F460">
+        <v>6</v>
+      </c>
+      <c r="G460">
+        <v>1</v>
+      </c>
+      <c r="H460">
+        <v>1</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>1</v>
+      </c>
+      <c r="K460">
+        <v>0</v>
+      </c>
+      <c r="L460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>4</v>
+      </c>
+      <c r="D461">
+        <v>3</v>
+      </c>
+      <c r="E461">
+        <v>3</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>1</v>
+      </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+      <c r="L461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>21</v>
+      </c>
+      <c r="C462">
+        <v>4</v>
+      </c>
+      <c r="D462">
+        <v>3</v>
+      </c>
+      <c r="E462">
+        <v>3</v>
+      </c>
+      <c r="F462">
+        <v>1</v>
+      </c>
+      <c r="G462">
+        <v>1</v>
+      </c>
+      <c r="H462">
+        <v>0</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+      <c r="L462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>29</v>
+      </c>
+      <c r="C463">
+        <v>4</v>
+      </c>
+      <c r="D463">
+        <v>3</v>
+      </c>
+      <c r="E463">
+        <v>3</v>
+      </c>
+      <c r="F463">
+        <v>3</v>
+      </c>
+      <c r="G463">
+        <v>1</v>
+      </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>0</v>
+      </c>
+      <c r="L463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464">
+        <v>4</v>
+      </c>
+      <c r="D464">
+        <v>3</v>
+      </c>
+      <c r="E464">
+        <v>3</v>
+      </c>
+      <c r="F464">
+        <v>0</v>
+      </c>
+      <c r="G464">
+        <v>1</v>
+      </c>
+      <c r="H464">
+        <v>0</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>0</v>
+      </c>
+      <c r="L464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465">
+        <v>4</v>
+      </c>
+      <c r="D465">
+        <v>3</v>
+      </c>
+      <c r="E465">
+        <v>3</v>
+      </c>
+      <c r="F465">
+        <v>1</v>
+      </c>
+      <c r="G465">
+        <v>1</v>
+      </c>
+      <c r="H465">
+        <v>0</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>0</v>
+      </c>
+      <c r="L465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>74</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>5</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+      <c r="G466">
+        <v>1</v>
+      </c>
+      <c r="H466">
+        <v>0</v>
+      </c>
+      <c r="I466">
+        <v>1</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
+      <c r="L466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>35</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>5</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467">
+        <v>1</v>
+      </c>
+      <c r="H467">
+        <v>0</v>
+      </c>
+      <c r="I467">
+        <v>1</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
+      <c r="L467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>27</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>5</v>
+      </c>
+      <c r="F468">
+        <v>1</v>
+      </c>
+      <c r="G468">
+        <v>1</v>
+      </c>
+      <c r="H468">
+        <v>0</v>
+      </c>
+      <c r="I468">
+        <v>1</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
+      <c r="L468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>25</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>5</v>
+      </c>
+      <c r="F469">
+        <v>3</v>
+      </c>
+      <c r="G469">
+        <v>1</v>
+      </c>
+      <c r="H469">
+        <v>0</v>
+      </c>
+      <c r="I469">
+        <v>1</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>0</v>
+      </c>
+      <c r="L469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>28</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470">
+        <v>5</v>
+      </c>
+      <c r="F470">
+        <v>0</v>
+      </c>
+      <c r="G470">
+        <v>1</v>
+      </c>
+      <c r="H470">
+        <v>0</v>
+      </c>
+      <c r="I470">
+        <v>1</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="K470">
+        <v>0</v>
+      </c>
+      <c r="L470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>57</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+      <c r="D471">
+        <v>2</v>
+      </c>
+      <c r="E471">
+        <v>3</v>
+      </c>
+      <c r="F471">
+        <v>2</v>
+      </c>
+      <c r="G471">
+        <v>1</v>
+      </c>
+      <c r="H471">
+        <v>0</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>0</v>
+      </c>
+      <c r="L471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+      <c r="D472">
+        <v>2</v>
+      </c>
+      <c r="E472">
+        <v>3</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>1</v>
+      </c>
+      <c r="H472">
+        <v>0</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472">
+        <v>0</v>
+      </c>
+      <c r="L472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>38</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+      <c r="D473">
+        <v>2</v>
+      </c>
+      <c r="E473">
+        <v>3</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+      <c r="G473">
+        <v>1</v>
+      </c>
+      <c r="H473">
+        <v>0</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473">
+        <v>0</v>
+      </c>
+      <c r="L473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>30</v>
+      </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+      <c r="D474">
+        <v>2</v>
+      </c>
+      <c r="E474">
+        <v>3</v>
+      </c>
+      <c r="F474">
+        <v>0</v>
+      </c>
+      <c r="G474">
+        <v>1</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="J474">
+        <v>0</v>
+      </c>
+      <c r="K474">
+        <v>0</v>
+      </c>
+      <c r="L474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>43</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475">
+        <v>2</v>
+      </c>
+      <c r="E475">
+        <v>3</v>
+      </c>
+      <c r="F475">
+        <v>3</v>
+      </c>
+      <c r="G475">
+        <v>1</v>
+      </c>
+      <c r="H475">
+        <v>0</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>0</v>
+      </c>
+      <c r="K475">
+        <v>0</v>
+      </c>
+      <c r="L475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>17</v>
+      </c>
+      <c r="C476">
+        <v>5</v>
+      </c>
+      <c r="D476">
+        <v>3</v>
+      </c>
+      <c r="E476">
+        <v>5</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+      <c r="G476">
+        <v>1</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
+      </c>
+      <c r="I476">
+        <v>0</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476">
+        <v>10</v>
+      </c>
+      <c r="L476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>55</v>
+      </c>
+      <c r="C477">
+        <v>5</v>
+      </c>
+      <c r="D477">
+        <v>3</v>
+      </c>
+      <c r="E477">
+        <v>4</v>
+      </c>
+      <c r="F477">
+        <v>3</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477">
+        <v>1</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477">
+        <v>10</v>
+      </c>
+      <c r="L477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>45</v>
+      </c>
+      <c r="C478">
+        <v>4</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>5</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+      <c r="I478">
+        <v>1</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478">
+        <v>9</v>
+      </c>
+      <c r="L478">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L293" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2141" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{716F907B-A0EE-4ACA-BFAF-AC65DE1461B4}"/>
+  <xr:revisionPtr revIDLastSave="2252" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29066538-5CE0-4429-9686-F8D64B604ED8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="79">
   <si>
     <t>Boneco</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Fabricio</t>
+  </si>
+  <si>
+    <t>Roberto</t>
   </si>
 </sst>
 </file>
@@ -599,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O478"/>
+  <dimension ref="A1:O500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A463" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K478" sqref="K478"/>
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F502" sqref="F502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17364,6 +17367,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>78</v>
+      </c>
+      <c r="C479">
+        <v>5</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479">
+        <v>4</v>
+      </c>
+      <c r="F479">
+        <v>1</v>
+      </c>
+      <c r="G479">
+        <v>1</v>
+      </c>
+      <c r="H479">
+        <v>0</v>
+      </c>
+      <c r="I479">
+        <v>0</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479">
+        <v>0</v>
+      </c>
+      <c r="L479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>28</v>
+      </c>
+      <c r="C480">
+        <v>5</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>4</v>
+      </c>
+      <c r="F480">
+        <v>2</v>
+      </c>
+      <c r="G480">
+        <v>1</v>
+      </c>
+      <c r="H480">
+        <v>0</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480">
+        <v>0</v>
+      </c>
+      <c r="L480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>26</v>
+      </c>
+      <c r="C481">
+        <v>5</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>4</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+      <c r="G481">
+        <v>1</v>
+      </c>
+      <c r="H481">
+        <v>0</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
+      <c r="L481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>4</v>
+      </c>
+      <c r="C482">
+        <v>5</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482">
+        <v>4</v>
+      </c>
+      <c r="F482">
+        <v>5</v>
+      </c>
+      <c r="G482">
+        <v>1</v>
+      </c>
+      <c r="H482">
+        <v>0</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>0</v>
+      </c>
+      <c r="L482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>57</v>
+      </c>
+      <c r="C483">
+        <v>5</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>4</v>
+      </c>
+      <c r="F483">
+        <v>3</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>1</v>
+      </c>
+      <c r="K483">
+        <v>0</v>
+      </c>
+      <c r="L483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>7</v>
+      </c>
+      <c r="C484">
+        <v>2</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>5</v>
+      </c>
+      <c r="F484">
+        <v>0</v>
+      </c>
+      <c r="G484">
+        <v>1</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
+        <v>1</v>
+      </c>
+      <c r="J484">
+        <v>0</v>
+      </c>
+      <c r="K484">
+        <v>0</v>
+      </c>
+      <c r="L484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>1</v>
+      </c>
+      <c r="C485">
+        <v>2</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>5</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+      <c r="G485">
+        <v>1</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
+        <v>1</v>
+      </c>
+      <c r="J485">
+        <v>0</v>
+      </c>
+      <c r="K485">
+        <v>0</v>
+      </c>
+      <c r="L485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486">
+        <v>5</v>
+      </c>
+      <c r="F486">
+        <v>2</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
+      <c r="I486">
+        <v>1</v>
+      </c>
+      <c r="J486">
+        <v>0</v>
+      </c>
+      <c r="K486">
+        <v>0</v>
+      </c>
+      <c r="L486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>5</v>
+      </c>
+      <c r="F487">
+        <v>1</v>
+      </c>
+      <c r="G487">
+        <v>1</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
+      </c>
+      <c r="I487">
+        <v>1</v>
+      </c>
+      <c r="J487">
+        <v>0</v>
+      </c>
+      <c r="K487">
+        <v>0</v>
+      </c>
+      <c r="L487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
+        <v>33</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>5</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>1</v>
+      </c>
+      <c r="H488">
+        <v>0</v>
+      </c>
+      <c r="I488">
+        <v>1</v>
+      </c>
+      <c r="J488">
+        <v>0</v>
+      </c>
+      <c r="K488">
+        <v>0</v>
+      </c>
+      <c r="L488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>20</v>
+      </c>
+      <c r="C489">
+        <v>4</v>
+      </c>
+      <c r="D489">
+        <v>3</v>
+      </c>
+      <c r="E489">
+        <v>2</v>
+      </c>
+      <c r="F489">
+        <v>1</v>
+      </c>
+      <c r="G489">
+        <v>1</v>
+      </c>
+      <c r="H489">
+        <v>1</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <v>0</v>
+      </c>
+      <c r="L489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>25</v>
+      </c>
+      <c r="C490">
+        <v>4</v>
+      </c>
+      <c r="D490">
+        <v>3</v>
+      </c>
+      <c r="E490">
+        <v>2</v>
+      </c>
+      <c r="F490">
+        <v>1</v>
+      </c>
+      <c r="G490">
+        <v>1</v>
+      </c>
+      <c r="H490">
+        <v>1</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+      <c r="L490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>6</v>
+      </c>
+      <c r="C491">
+        <v>4</v>
+      </c>
+      <c r="D491">
+        <v>3</v>
+      </c>
+      <c r="E491">
+        <v>2</v>
+      </c>
+      <c r="F491">
+        <v>1</v>
+      </c>
+      <c r="G491">
+        <v>1</v>
+      </c>
+      <c r="H491">
+        <v>1</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="K491">
+        <v>0</v>
+      </c>
+      <c r="L491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>3</v>
+      </c>
+      <c r="C492">
+        <v>4</v>
+      </c>
+      <c r="D492">
+        <v>3</v>
+      </c>
+      <c r="E492">
+        <v>2</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492">
+        <v>1</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>0</v>
+      </c>
+      <c r="L492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>21</v>
+      </c>
+      <c r="C493">
+        <v>4</v>
+      </c>
+      <c r="D493">
+        <v>3</v>
+      </c>
+      <c r="E493">
+        <v>2</v>
+      </c>
+      <c r="F493">
+        <v>2</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+      <c r="H493">
+        <v>1</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
+      <c r="L493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>24</v>
+      </c>
+      <c r="C494">
+        <v>4</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494">
+        <v>4</v>
+      </c>
+      <c r="F494">
+        <v>2</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+      <c r="H494">
+        <v>0</v>
+      </c>
+      <c r="I494">
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <v>0</v>
+      </c>
+      <c r="L494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>32</v>
+      </c>
+      <c r="C495">
+        <v>4</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495">
+        <v>4</v>
+      </c>
+      <c r="F495">
+        <v>1</v>
+      </c>
+      <c r="G495">
+        <v>1</v>
+      </c>
+      <c r="H495">
+        <v>0</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="K495">
+        <v>0</v>
+      </c>
+      <c r="L495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>34</v>
+      </c>
+      <c r="C496">
+        <v>4</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>4</v>
+      </c>
+      <c r="F496">
+        <v>2</v>
+      </c>
+      <c r="G496">
+        <v>1</v>
+      </c>
+      <c r="H496">
+        <v>0</v>
+      </c>
+      <c r="I496">
+        <v>0</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
+      <c r="L496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>27</v>
+      </c>
+      <c r="C497">
+        <v>4</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497">
+        <v>4</v>
+      </c>
+      <c r="F497">
+        <v>2</v>
+      </c>
+      <c r="G497">
+        <v>1</v>
+      </c>
+      <c r="H497">
+        <v>0</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
+      <c r="L497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>29</v>
+      </c>
+      <c r="C498">
+        <v>4</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498">
+        <v>4</v>
+      </c>
+      <c r="F498">
+        <v>2</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+      <c r="L498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>17</v>
+      </c>
+      <c r="C499">
+        <v>6</v>
+      </c>
+      <c r="D499">
+        <v>3</v>
+      </c>
+      <c r="E499">
+        <v>9</v>
+      </c>
+      <c r="F499">
+        <v>3</v>
+      </c>
+      <c r="G499">
+        <v>1</v>
+      </c>
+      <c r="H499">
+        <v>0</v>
+      </c>
+      <c r="I499">
+        <v>1</v>
+      </c>
+      <c r="J499">
+        <v>0</v>
+      </c>
+      <c r="K499">
+        <v>19</v>
+      </c>
+      <c r="L499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>55</v>
+      </c>
+      <c r="C500">
+        <v>9</v>
+      </c>
+      <c r="D500">
+        <v>3</v>
+      </c>
+      <c r="E500">
+        <v>6</v>
+      </c>
+      <c r="F500">
+        <v>1</v>
+      </c>
+      <c r="G500">
+        <v>1</v>
+      </c>
+      <c r="H500">
+        <v>1</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
+      <c r="K500">
+        <v>19</v>
+      </c>
+      <c r="L500">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2252" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29066538-5CE0-4429-9686-F8D64B604ED8}"/>
+  <xr:revisionPtr revIDLastSave="2376" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC00B783-C0AA-40DD-829F-927102835608}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="79">
   <si>
     <t>Boneco</t>
   </si>
@@ -602,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O500"/>
+  <dimension ref="A1:O523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F502" sqref="F502"/>
+      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18137,6 +18137,811 @@
         <v>0</v>
       </c>
     </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>3</v>
+      </c>
+      <c r="C501">
+        <v>4</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+      <c r="E501">
+        <v>3</v>
+      </c>
+      <c r="F501">
+        <v>1</v>
+      </c>
+      <c r="G501">
+        <v>1</v>
+      </c>
+      <c r="H501">
+        <v>0</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>0</v>
+      </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
+      <c r="L501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A502" t="s">
+        <v>26</v>
+      </c>
+      <c r="C502">
+        <v>4</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+      <c r="E502">
+        <v>3</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+      <c r="G502">
+        <v>1</v>
+      </c>
+      <c r="H502">
+        <v>0</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+      <c r="L502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>57</v>
+      </c>
+      <c r="C503">
+        <v>4</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>3</v>
+      </c>
+      <c r="F503">
+        <v>2</v>
+      </c>
+      <c r="G503">
+        <v>1</v>
+      </c>
+      <c r="H503">
+        <v>0</v>
+      </c>
+      <c r="I503">
+        <v>0</v>
+      </c>
+      <c r="J503">
+        <v>0</v>
+      </c>
+      <c r="K503">
+        <v>0</v>
+      </c>
+      <c r="L503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A504" t="s">
+        <v>5</v>
+      </c>
+      <c r="C504">
+        <v>4</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+      <c r="E504">
+        <v>3</v>
+      </c>
+      <c r="F504">
+        <v>3</v>
+      </c>
+      <c r="G504">
+        <v>1</v>
+      </c>
+      <c r="H504">
+        <v>0</v>
+      </c>
+      <c r="I504">
+        <v>0</v>
+      </c>
+      <c r="J504">
+        <v>0</v>
+      </c>
+      <c r="K504">
+        <v>0</v>
+      </c>
+      <c r="L504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A505" t="s">
+        <v>21</v>
+      </c>
+      <c r="C505">
+        <v>4</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>3</v>
+      </c>
+      <c r="F505">
+        <v>2</v>
+      </c>
+      <c r="G505">
+        <v>1</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
+      <c r="L505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A506" t="s">
+        <v>6</v>
+      </c>
+      <c r="C506">
+        <v>4</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506">
+        <v>3</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+      <c r="G506">
+        <v>1</v>
+      </c>
+      <c r="H506">
+        <v>1</v>
+      </c>
+      <c r="I506">
+        <v>0</v>
+      </c>
+      <c r="J506">
+        <v>0</v>
+      </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
+      <c r="L506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A507" t="s">
+        <v>32</v>
+      </c>
+      <c r="C507">
+        <v>4</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507">
+        <v>3</v>
+      </c>
+      <c r="F507">
+        <v>4</v>
+      </c>
+      <c r="G507">
+        <v>1</v>
+      </c>
+      <c r="H507">
+        <v>1</v>
+      </c>
+      <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="J507">
+        <v>1</v>
+      </c>
+      <c r="K507">
+        <v>0</v>
+      </c>
+      <c r="L507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A508" t="s">
+        <v>67</v>
+      </c>
+      <c r="C508">
+        <v>4</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508">
+        <v>3</v>
+      </c>
+      <c r="F508">
+        <v>2</v>
+      </c>
+      <c r="G508">
+        <v>1</v>
+      </c>
+      <c r="H508">
+        <v>1</v>
+      </c>
+      <c r="I508">
+        <v>0</v>
+      </c>
+      <c r="J508">
+        <v>0</v>
+      </c>
+      <c r="K508">
+        <v>0</v>
+      </c>
+      <c r="L508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A509" t="s">
+        <v>25</v>
+      </c>
+      <c r="C509">
+        <v>4</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+      <c r="E509">
+        <v>3</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+      <c r="G509">
+        <v>1</v>
+      </c>
+      <c r="H509">
+        <v>1</v>
+      </c>
+      <c r="I509">
+        <v>0</v>
+      </c>
+      <c r="J509">
+        <v>0</v>
+      </c>
+      <c r="K509">
+        <v>0</v>
+      </c>
+      <c r="L509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A510" t="s">
+        <v>33</v>
+      </c>
+      <c r="C510">
+        <v>4</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+      <c r="E510">
+        <v>3</v>
+      </c>
+      <c r="F510">
+        <v>0</v>
+      </c>
+      <c r="G510">
+        <v>1</v>
+      </c>
+      <c r="H510">
+        <v>1</v>
+      </c>
+      <c r="I510">
+        <v>0</v>
+      </c>
+      <c r="J510">
+        <v>0</v>
+      </c>
+      <c r="K510">
+        <v>0</v>
+      </c>
+      <c r="L510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A511" t="s">
+        <v>4</v>
+      </c>
+      <c r="C511">
+        <v>2</v>
+      </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+      <c r="E511">
+        <v>3</v>
+      </c>
+      <c r="F511">
+        <v>0</v>
+      </c>
+      <c r="G511">
+        <v>1</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
+      </c>
+      <c r="I511">
+        <v>1</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>0</v>
+      </c>
+      <c r="L511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C512">
+        <v>2</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+      <c r="E512">
+        <v>3</v>
+      </c>
+      <c r="F512">
+        <v>1</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+      <c r="I512">
+        <v>1</v>
+      </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
+      <c r="K512">
+        <v>0</v>
+      </c>
+      <c r="L512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A513" t="s">
+        <v>1</v>
+      </c>
+      <c r="C513">
+        <v>2</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513">
+        <v>3</v>
+      </c>
+      <c r="F513">
+        <v>0</v>
+      </c>
+      <c r="G513">
+        <v>1</v>
+      </c>
+      <c r="H513">
+        <v>0</v>
+      </c>
+      <c r="I513">
+        <v>1</v>
+      </c>
+      <c r="J513">
+        <v>0</v>
+      </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
+      <c r="L513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A514" t="s">
+        <v>43</v>
+      </c>
+      <c r="C514">
+        <v>2</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514">
+        <v>3</v>
+      </c>
+      <c r="F514">
+        <v>1</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+      <c r="H514">
+        <v>0</v>
+      </c>
+      <c r="I514">
+        <v>1</v>
+      </c>
+      <c r="J514">
+        <v>0</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
+      <c r="L514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A515" t="s">
+        <v>24</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>3</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+      <c r="H515">
+        <v>0</v>
+      </c>
+      <c r="I515">
+        <v>1</v>
+      </c>
+      <c r="J515">
+        <v>0</v>
+      </c>
+      <c r="K515">
+        <v>0</v>
+      </c>
+      <c r="L515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A516" t="s">
+        <v>29</v>
+      </c>
+      <c r="C516">
+        <v>2</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+      <c r="E516">
+        <v>3</v>
+      </c>
+      <c r="F516">
+        <v>0</v>
+      </c>
+      <c r="G516">
+        <v>1</v>
+      </c>
+      <c r="H516">
+        <v>0</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>0</v>
+      </c>
+      <c r="K516">
+        <v>0</v>
+      </c>
+      <c r="L516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A517" t="s">
+        <v>23</v>
+      </c>
+      <c r="C517">
+        <v>2</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517">
+        <v>3</v>
+      </c>
+      <c r="F517">
+        <v>3</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>0</v>
+      </c>
+      <c r="K517">
+        <v>0</v>
+      </c>
+      <c r="L517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A518" t="s">
+        <v>30</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+      <c r="D518">
+        <v>1</v>
+      </c>
+      <c r="E518">
+        <v>3</v>
+      </c>
+      <c r="F518">
+        <v>1</v>
+      </c>
+      <c r="G518">
+        <v>1</v>
+      </c>
+      <c r="H518">
+        <v>0</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>0</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
+      <c r="L518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>78</v>
+      </c>
+      <c r="C519">
+        <v>2</v>
+      </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
+      <c r="E519">
+        <v>3</v>
+      </c>
+      <c r="F519">
+        <v>0</v>
+      </c>
+      <c r="G519">
+        <v>1</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+      <c r="I519">
+        <v>0</v>
+      </c>
+      <c r="J519">
+        <v>0</v>
+      </c>
+      <c r="K519">
+        <v>0</v>
+      </c>
+      <c r="L519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>27</v>
+      </c>
+      <c r="C520">
+        <v>2</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+      <c r="E520">
+        <v>3</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+      <c r="G520">
+        <v>1</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520">
+        <v>0</v>
+      </c>
+      <c r="J520">
+        <v>0</v>
+      </c>
+      <c r="K520">
+        <v>0</v>
+      </c>
+      <c r="L520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A521" t="s">
+        <v>17</v>
+      </c>
+      <c r="C521">
+        <v>5</v>
+      </c>
+      <c r="D521">
+        <v>2</v>
+      </c>
+      <c r="E521">
+        <v>3</v>
+      </c>
+      <c r="F521">
+        <v>2</v>
+      </c>
+      <c r="G521">
+        <v>1</v>
+      </c>
+      <c r="H521">
+        <v>1</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>8</v>
+      </c>
+      <c r="L521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A522" t="s">
+        <v>55</v>
+      </c>
+      <c r="C522">
+        <v>2</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
+      <c r="E522">
+        <v>5</v>
+      </c>
+      <c r="F522">
+        <v>0</v>
+      </c>
+      <c r="G522">
+        <v>1</v>
+      </c>
+      <c r="H522">
+        <v>0</v>
+      </c>
+      <c r="I522">
+        <v>1</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>7</v>
+      </c>
+      <c r="L522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A523" t="s">
+        <v>45</v>
+      </c>
+      <c r="C523">
+        <v>5</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+      <c r="E523">
+        <v>4</v>
+      </c>
+      <c r="F523">
+        <v>0</v>
+      </c>
+      <c r="G523">
+        <v>1</v>
+      </c>
+      <c r="H523">
+        <v>0</v>
+      </c>
+      <c r="I523">
+        <v>0</v>
+      </c>
+      <c r="J523">
+        <v>0</v>
+      </c>
+      <c r="K523">
+        <v>7</v>
+      </c>
+      <c r="L523">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2376" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC00B783-C0AA-40DD-829F-927102835608}"/>
+  <xr:revisionPtr revIDLastSave="2495" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28A17A2C-C42A-459D-9D60-106825150E72}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="79">
   <si>
     <t>Boneco</t>
   </si>
@@ -602,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O523"/>
+  <dimension ref="A1:O545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D521" sqref="D521"/>
+      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A546" sqref="A546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18942,6 +18942,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A524" t="s">
+        <v>27</v>
+      </c>
+      <c r="C524">
+        <v>5</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>4</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+      <c r="G524">
+        <v>1</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+      <c r="I524">
+        <v>0</v>
+      </c>
+      <c r="J524">
+        <v>0</v>
+      </c>
+      <c r="K524">
+        <v>0</v>
+      </c>
+      <c r="L524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A525" t="s">
+        <v>21</v>
+      </c>
+      <c r="C525">
+        <v>5</v>
+      </c>
+      <c r="D525">
+        <v>0</v>
+      </c>
+      <c r="E525">
+        <v>4</v>
+      </c>
+      <c r="F525">
+        <v>4</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525">
+        <v>0</v>
+      </c>
+      <c r="I525">
+        <v>0</v>
+      </c>
+      <c r="J525">
+        <v>0</v>
+      </c>
+      <c r="K525">
+        <v>0</v>
+      </c>
+      <c r="L525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A526" t="s">
+        <v>20</v>
+      </c>
+      <c r="C526">
+        <v>5</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+      <c r="E526">
+        <v>4</v>
+      </c>
+      <c r="F526">
+        <v>0</v>
+      </c>
+      <c r="G526">
+        <v>1</v>
+      </c>
+      <c r="H526">
+        <v>0</v>
+      </c>
+      <c r="I526">
+        <v>0</v>
+      </c>
+      <c r="J526">
+        <v>0</v>
+      </c>
+      <c r="K526">
+        <v>0</v>
+      </c>
+      <c r="L526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A527" t="s">
+        <v>23</v>
+      </c>
+      <c r="C527">
+        <v>5</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+      <c r="E527">
+        <v>4</v>
+      </c>
+      <c r="F527">
+        <v>3</v>
+      </c>
+      <c r="G527">
+        <v>1</v>
+      </c>
+      <c r="H527">
+        <v>0</v>
+      </c>
+      <c r="I527">
+        <v>0</v>
+      </c>
+      <c r="J527">
+        <v>0</v>
+      </c>
+      <c r="K527">
+        <v>0</v>
+      </c>
+      <c r="L527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A528" t="s">
+        <v>1</v>
+      </c>
+      <c r="C528">
+        <v>5</v>
+      </c>
+      <c r="D528">
+        <v>0</v>
+      </c>
+      <c r="E528">
+        <v>4</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+      <c r="G528">
+        <v>1</v>
+      </c>
+      <c r="H528">
+        <v>0</v>
+      </c>
+      <c r="I528">
+        <v>0</v>
+      </c>
+      <c r="J528">
+        <v>0</v>
+      </c>
+      <c r="K528">
+        <v>0</v>
+      </c>
+      <c r="L528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A529" t="s">
+        <v>6</v>
+      </c>
+      <c r="C529">
+        <v>2</v>
+      </c>
+      <c r="D529">
+        <v>0</v>
+      </c>
+      <c r="E529">
+        <v>5</v>
+      </c>
+      <c r="F529">
+        <v>2</v>
+      </c>
+      <c r="G529">
+        <v>1</v>
+      </c>
+      <c r="H529">
+        <v>0</v>
+      </c>
+      <c r="I529">
+        <v>1</v>
+      </c>
+      <c r="J529">
+        <v>0</v>
+      </c>
+      <c r="K529">
+        <v>0</v>
+      </c>
+      <c r="L529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A530" t="s">
+        <v>49</v>
+      </c>
+      <c r="C530">
+        <v>2</v>
+      </c>
+      <c r="D530">
+        <v>0</v>
+      </c>
+      <c r="E530">
+        <v>5</v>
+      </c>
+      <c r="F530">
+        <v>1</v>
+      </c>
+      <c r="G530">
+        <v>1</v>
+      </c>
+      <c r="H530">
+        <v>0</v>
+      </c>
+      <c r="I530">
+        <v>1</v>
+      </c>
+      <c r="J530">
+        <v>0</v>
+      </c>
+      <c r="K530">
+        <v>0</v>
+      </c>
+      <c r="L530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A531" t="s">
+        <v>24</v>
+      </c>
+      <c r="C531">
+        <v>2</v>
+      </c>
+      <c r="D531">
+        <v>0</v>
+      </c>
+      <c r="E531">
+        <v>5</v>
+      </c>
+      <c r="F531">
+        <v>1</v>
+      </c>
+      <c r="G531">
+        <v>1</v>
+      </c>
+      <c r="H531">
+        <v>0</v>
+      </c>
+      <c r="I531">
+        <v>1</v>
+      </c>
+      <c r="J531">
+        <v>0</v>
+      </c>
+      <c r="K531">
+        <v>0</v>
+      </c>
+      <c r="L531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A532" t="s">
+        <v>26</v>
+      </c>
+      <c r="C532">
+        <v>2</v>
+      </c>
+      <c r="D532">
+        <v>0</v>
+      </c>
+      <c r="E532">
+        <v>5</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+      <c r="G532">
+        <v>1</v>
+      </c>
+      <c r="H532">
+        <v>0</v>
+      </c>
+      <c r="I532">
+        <v>1</v>
+      </c>
+      <c r="J532">
+        <v>0</v>
+      </c>
+      <c r="K532">
+        <v>0</v>
+      </c>
+      <c r="L532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A533" t="s">
+        <v>5</v>
+      </c>
+      <c r="C533">
+        <v>2</v>
+      </c>
+      <c r="D533">
+        <v>0</v>
+      </c>
+      <c r="E533">
+        <v>5</v>
+      </c>
+      <c r="F533">
+        <v>0</v>
+      </c>
+      <c r="G533">
+        <v>1</v>
+      </c>
+      <c r="H533">
+        <v>0</v>
+      </c>
+      <c r="I533">
+        <v>1</v>
+      </c>
+      <c r="J533">
+        <v>0</v>
+      </c>
+      <c r="K533">
+        <v>0</v>
+      </c>
+      <c r="L533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A534" t="s">
+        <v>57</v>
+      </c>
+      <c r="C534">
+        <v>2</v>
+      </c>
+      <c r="D534">
+        <v>0</v>
+      </c>
+      <c r="E534">
+        <v>5</v>
+      </c>
+      <c r="F534">
+        <v>3</v>
+      </c>
+      <c r="G534">
+        <v>1</v>
+      </c>
+      <c r="H534">
+        <v>0</v>
+      </c>
+      <c r="I534">
+        <v>0</v>
+      </c>
+      <c r="J534">
+        <v>0</v>
+      </c>
+      <c r="K534">
+        <v>0</v>
+      </c>
+      <c r="L534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A535" t="s">
+        <v>33</v>
+      </c>
+      <c r="C535">
+        <v>2</v>
+      </c>
+      <c r="D535">
+        <v>0</v>
+      </c>
+      <c r="E535">
+        <v>5</v>
+      </c>
+      <c r="F535">
+        <v>0</v>
+      </c>
+      <c r="G535">
+        <v>1</v>
+      </c>
+      <c r="H535">
+        <v>0</v>
+      </c>
+      <c r="I535">
+        <v>1</v>
+      </c>
+      <c r="J535">
+        <v>0</v>
+      </c>
+      <c r="K535">
+        <v>0</v>
+      </c>
+      <c r="L535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A536" t="s">
+        <v>29</v>
+      </c>
+      <c r="C536">
+        <v>2</v>
+      </c>
+      <c r="D536">
+        <v>0</v>
+      </c>
+      <c r="E536">
+        <v>5</v>
+      </c>
+      <c r="F536">
+        <v>1</v>
+      </c>
+      <c r="G536">
+        <v>1</v>
+      </c>
+      <c r="H536">
+        <v>0</v>
+      </c>
+      <c r="I536">
+        <v>0</v>
+      </c>
+      <c r="J536">
+        <v>0</v>
+      </c>
+      <c r="K536">
+        <v>0</v>
+      </c>
+      <c r="L536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A537" t="s">
+        <v>38</v>
+      </c>
+      <c r="C537">
+        <v>2</v>
+      </c>
+      <c r="D537">
+        <v>0</v>
+      </c>
+      <c r="E537">
+        <v>5</v>
+      </c>
+      <c r="F537">
+        <v>0</v>
+      </c>
+      <c r="G537">
+        <v>1</v>
+      </c>
+      <c r="H537">
+        <v>0</v>
+      </c>
+      <c r="I537">
+        <v>0</v>
+      </c>
+      <c r="J537">
+        <v>0</v>
+      </c>
+      <c r="K537">
+        <v>0</v>
+      </c>
+      <c r="L537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A538" t="s">
+        <v>3</v>
+      </c>
+      <c r="C538">
+        <v>2</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+      <c r="E538">
+        <v>5</v>
+      </c>
+      <c r="F538">
+        <v>2</v>
+      </c>
+      <c r="G538">
+        <v>1</v>
+      </c>
+      <c r="H538">
+        <v>0</v>
+      </c>
+      <c r="I538">
+        <v>1</v>
+      </c>
+      <c r="J538">
+        <v>0</v>
+      </c>
+      <c r="K538">
+        <v>0</v>
+      </c>
+      <c r="L538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A539" t="s">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>8</v>
+      </c>
+      <c r="D539">
+        <v>0</v>
+      </c>
+      <c r="E539">
+        <v>3</v>
+      </c>
+      <c r="F539">
+        <v>4</v>
+      </c>
+      <c r="G539">
+        <v>1</v>
+      </c>
+      <c r="H539">
+        <v>1</v>
+      </c>
+      <c r="I539">
+        <v>0</v>
+      </c>
+      <c r="J539">
+        <v>0</v>
+      </c>
+      <c r="K539">
+        <v>0</v>
+      </c>
+      <c r="L539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A540" t="s">
+        <v>30</v>
+      </c>
+      <c r="C540">
+        <v>8</v>
+      </c>
+      <c r="D540">
+        <v>0</v>
+      </c>
+      <c r="E540">
+        <v>3</v>
+      </c>
+      <c r="F540">
+        <v>2</v>
+      </c>
+      <c r="G540">
+        <v>1</v>
+      </c>
+      <c r="H540">
+        <v>1</v>
+      </c>
+      <c r="I540">
+        <v>0</v>
+      </c>
+      <c r="J540">
+        <v>1</v>
+      </c>
+      <c r="K540">
+        <v>0</v>
+      </c>
+      <c r="L540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A541" t="s">
+        <v>36</v>
+      </c>
+      <c r="C541">
+        <v>8</v>
+      </c>
+      <c r="D541">
+        <v>0</v>
+      </c>
+      <c r="E541">
+        <v>3</v>
+      </c>
+      <c r="F541">
+        <v>3</v>
+      </c>
+      <c r="G541">
+        <v>1</v>
+      </c>
+      <c r="H541">
+        <v>1</v>
+      </c>
+      <c r="I541">
+        <v>0</v>
+      </c>
+      <c r="J541">
+        <v>0</v>
+      </c>
+      <c r="K541">
+        <v>0</v>
+      </c>
+      <c r="L541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A542" t="s">
+        <v>25</v>
+      </c>
+      <c r="C542">
+        <v>8</v>
+      </c>
+      <c r="D542">
+        <v>0</v>
+      </c>
+      <c r="E542">
+        <v>3</v>
+      </c>
+      <c r="F542">
+        <v>2</v>
+      </c>
+      <c r="G542">
+        <v>1</v>
+      </c>
+      <c r="H542">
+        <v>1</v>
+      </c>
+      <c r="I542">
+        <v>0</v>
+      </c>
+      <c r="J542">
+        <v>0</v>
+      </c>
+      <c r="K542">
+        <v>0</v>
+      </c>
+      <c r="L542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A543" t="s">
+        <v>34</v>
+      </c>
+      <c r="C543">
+        <v>8</v>
+      </c>
+      <c r="D543">
+        <v>0</v>
+      </c>
+      <c r="E543">
+        <v>3</v>
+      </c>
+      <c r="F543">
+        <v>1</v>
+      </c>
+      <c r="G543">
+        <v>1</v>
+      </c>
+      <c r="H543">
+        <v>1</v>
+      </c>
+      <c r="I543">
+        <v>0</v>
+      </c>
+      <c r="J543">
+        <v>0</v>
+      </c>
+      <c r="K543">
+        <v>0</v>
+      </c>
+      <c r="L543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A544" t="s">
+        <v>17</v>
+      </c>
+      <c r="C544">
+        <v>4</v>
+      </c>
+      <c r="D544">
+        <v>0</v>
+      </c>
+      <c r="E544">
+        <v>8</v>
+      </c>
+      <c r="F544">
+        <v>1</v>
+      </c>
+      <c r="G544">
+        <v>1</v>
+      </c>
+      <c r="H544">
+        <v>0</v>
+      </c>
+      <c r="I544">
+        <v>1</v>
+      </c>
+      <c r="J544">
+        <v>0</v>
+      </c>
+      <c r="K544">
+        <v>13</v>
+      </c>
+      <c r="L544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A545" t="s">
+        <v>55</v>
+      </c>
+      <c r="C545">
+        <v>10</v>
+      </c>
+      <c r="D545">
+        <v>0</v>
+      </c>
+      <c r="E545">
+        <v>4</v>
+      </c>
+      <c r="F545">
+        <v>1</v>
+      </c>
+      <c r="G545">
+        <v>1</v>
+      </c>
+      <c r="H545">
+        <v>1</v>
+      </c>
+      <c r="I545">
+        <v>0</v>
+      </c>
+      <c r="J545">
+        <v>0</v>
+      </c>
+      <c r="K545">
+        <v>9</v>
+      </c>
+      <c r="L545">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2495" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28A17A2C-C42A-459D-9D60-106825150E72}"/>
+  <xr:revisionPtr revIDLastSave="2497" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC4508D8-B1C9-4E22-8FE6-E87C17C90753}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,8 +605,8 @@
   <dimension ref="A1:O545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A546" sqref="A546"/>
+      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H538" sqref="H538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="I535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J535">
         <v>0</v>
@@ -19455,7 +19455,7 @@
         <v>0</v>
       </c>
       <c r="I538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J538">
         <v>0</v>

--- a/pelada_sabado_2025_01.xlsx
+++ b/pelada_sabado_2025_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2497" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC4508D8-B1C9-4E22-8FE6-E87C17C90753}"/>
+  <xr:revisionPtr revIDLastSave="2607" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA049149-D9E2-4985-B86C-E9D7993B090F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="80">
   <si>
     <t>Boneco</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Roberto</t>
+  </si>
+  <si>
+    <t>Deiverson</t>
   </si>
 </sst>
 </file>
@@ -602,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O545"/>
+  <dimension ref="A1:O567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H538" sqref="H538"/>
+      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M566" sqref="M566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19712,6 +19715,776 @@
         <v>1</v>
       </c>
     </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A546" t="s">
+        <v>33</v>
+      </c>
+      <c r="C546">
+        <v>4</v>
+      </c>
+      <c r="D546">
+        <v>3</v>
+      </c>
+      <c r="E546">
+        <v>2</v>
+      </c>
+      <c r="F546">
+        <v>0</v>
+      </c>
+      <c r="G546">
+        <v>1</v>
+      </c>
+      <c r="H546">
+        <v>1</v>
+      </c>
+      <c r="I546">
+        <v>0</v>
+      </c>
+      <c r="J546">
+        <v>0</v>
+      </c>
+      <c r="K546">
+        <v>0</v>
+      </c>
+      <c r="L546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A547" t="s">
+        <v>50</v>
+      </c>
+      <c r="C547">
+        <v>4</v>
+      </c>
+      <c r="D547">
+        <v>3</v>
+      </c>
+      <c r="E547">
+        <v>2</v>
+      </c>
+      <c r="F547">
+        <v>2</v>
+      </c>
+      <c r="G547">
+        <v>1</v>
+      </c>
+      <c r="H547">
+        <v>1</v>
+      </c>
+      <c r="I547">
+        <v>0</v>
+      </c>
+      <c r="J547">
+        <v>1</v>
+      </c>
+      <c r="K547">
+        <v>0</v>
+      </c>
+      <c r="L547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A548" t="s">
+        <v>5</v>
+      </c>
+      <c r="C548">
+        <v>4</v>
+      </c>
+      <c r="D548">
+        <v>3</v>
+      </c>
+      <c r="E548">
+        <v>2</v>
+      </c>
+      <c r="F548">
+        <v>0</v>
+      </c>
+      <c r="G548">
+        <v>1</v>
+      </c>
+      <c r="H548">
+        <v>1</v>
+      </c>
+      <c r="I548">
+        <v>0</v>
+      </c>
+      <c r="J548">
+        <v>0</v>
+      </c>
+      <c r="K548">
+        <v>0</v>
+      </c>
+      <c r="L548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A549" t="s">
+        <v>78</v>
+      </c>
+      <c r="C549">
+        <v>4</v>
+      </c>
+      <c r="D549">
+        <v>3</v>
+      </c>
+      <c r="E549">
+        <v>2</v>
+      </c>
+      <c r="F549">
+        <v>2</v>
+      </c>
+      <c r="G549">
+        <v>1</v>
+      </c>
+      <c r="H549">
+        <v>1</v>
+      </c>
+      <c r="I549">
+        <v>0</v>
+      </c>
+      <c r="J549">
+        <v>0</v>
+      </c>
+      <c r="K549">
+        <v>0</v>
+      </c>
+      <c r="L549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A550" t="s">
+        <v>36</v>
+      </c>
+      <c r="C550">
+        <v>4</v>
+      </c>
+      <c r="D550">
+        <v>3</v>
+      </c>
+      <c r="E550">
+        <v>2</v>
+      </c>
+      <c r="F550">
+        <v>2</v>
+      </c>
+      <c r="G550">
+        <v>1</v>
+      </c>
+      <c r="H550">
+        <v>1</v>
+      </c>
+      <c r="I550">
+        <v>0</v>
+      </c>
+      <c r="J550">
+        <v>0</v>
+      </c>
+      <c r="K550">
+        <v>0</v>
+      </c>
+      <c r="L550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A551" t="s">
+        <v>20</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551">
+        <v>4</v>
+      </c>
+      <c r="E551">
+        <v>2</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <v>1</v>
+      </c>
+      <c r="H551">
+        <v>0</v>
+      </c>
+      <c r="I551">
+        <v>0</v>
+      </c>
+      <c r="J551">
+        <v>0</v>
+      </c>
+      <c r="K551">
+        <v>0</v>
+      </c>
+      <c r="L551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A552" t="s">
+        <v>37</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552">
+        <v>4</v>
+      </c>
+      <c r="E552">
+        <v>2</v>
+      </c>
+      <c r="F552">
+        <v>0</v>
+      </c>
+      <c r="G552">
+        <v>1</v>
+      </c>
+      <c r="H552">
+        <v>0</v>
+      </c>
+      <c r="I552">
+        <v>0</v>
+      </c>
+      <c r="J552">
+        <v>0</v>
+      </c>
+      <c r="K552">
+        <v>0</v>
+      </c>
+      <c r="L552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A553" t="s">
+        <v>41</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>4</v>
+      </c>
+      <c r="E553">
+        <v>2</v>
+      </c>
+      <c r="F553">
+        <v>1</v>
+      </c>
+      <c r="G553">
+        <v>1</v>
+      </c>
+      <c r="H553">
+        <v>0</v>
+      </c>
+      <c r="I553">
+        <v>0</v>
+      </c>
+      <c r="J553">
+        <v>0</v>
+      </c>
+      <c r="K553">
+        <v>0</v>
+      </c>
+      <c r="L553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A554" t="s">
+        <v>30</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554">
+        <v>4</v>
+      </c>
+      <c r="E554">
+        <v>2</v>
+      </c>
+      <c r="F554">
+        <v>0</v>
+      </c>
+      <c r="G554">
+        <v>1</v>
+      </c>
+      <c r="H554">
+        <v>0</v>
+      </c>
+      <c r="I554">
+        <v>0</v>
+      </c>
+      <c r="J554">
+        <v>0</v>
+      </c>
+      <c r="K554">
+        <v>0</v>
+      </c>
+      <c r="L554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A555" t="s">
+        <v>27</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="D555">
+        <v>4</v>
+      </c>
+      <c r="E555">
+        <v>2</v>
+      </c>
+      <c r="F555">
+        <v>0</v>
+      </c>
+      <c r="G555">
+        <v>1</v>
+      </c>
+      <c r="H555">
+        <v>0</v>
+      </c>
+      <c r="I555">
+        <v>0</v>
+      </c>
+      <c r="J555">
+        <v>0</v>
+      </c>
+      <c r="K555">
+        <v>0</v>
+      </c>
+      <c r="L555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A556" t="s">
+        <v>24</v>
+      </c>
+      <c r="C556">
+        <v>2</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556">
+        <v>4</v>
+      </c>
+      <c r="F556">
+        <v>0</v>
+      </c>
+      <c r="G556">
+        <v>1</v>
+      </c>
+      <c r="H556">
+        <v>0</v>
+      </c>
+      <c r="I556">
+        <v>1</v>
+      </c>
+      <c r="J556">
+        <v>0</v>
+      </c>
+      <c r="K556">
+        <v>0</v>
+      </c>
+      <c r="L556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A557" t="s">
+        <v>23</v>
+      </c>
+      <c r="C557">
+        <v>2</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557">
+        <v>4</v>
+      </c>
+      <c r="F557">
+        <v>1</v>
+      </c>
+      <c r="G557">
+        <v>1</v>
+      </c>
+      <c r="H557">
+        <v>0</v>
+      </c>
+      <c r="I557">
+        <v>1</v>
+      </c>
+      <c r="J557">
+        <v>0</v>
+      </c>
+      <c r="K557">
+        <v>0</v>
+      </c>
+      <c r="L557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A558" t="s">
+        <v>3</v>
+      </c>
+      <c r="C558">
+        <v>2</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558">
+        <v>4</v>
+      </c>
+      <c r="F558">
+        <v>1</v>
+      </c>
+      <c r="G558">
+        <v>1</v>
+      </c>
+      <c r="H558">
+        <v>0</v>
+      </c>
+      <c r="I558">
+        <v>1</v>
+      </c>
+      <c r="J558">
+        <v>0</v>
+      </c>
+      <c r="K558">
+        <v>0</v>
+      </c>
+      <c r="L558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A559" t="s">
+        <v>0</v>
+      </c>
+      <c r="C559">
+        <v>2</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="E559">
+        <v>4</v>
+      </c>
+      <c r="F559">
+        <v>2</v>
+      </c>
+      <c r="G559">
+        <v>1</v>
+      </c>
+      <c r="H559">
+        <v>0</v>
+      </c>
+      <c r="I559">
+        <v>1</v>
+      </c>
+      <c r="J559">
+        <v>0</v>
+      </c>
+      <c r="K559">
+        <v>0</v>
+      </c>
+      <c r="L559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A560" t="s">
+        <v>25</v>
+      </c>
+      <c r="C560">
+        <v>2</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
+      </c>
+      <c r="E560">
+        <v>4</v>
+      </c>
+      <c r="F560">
+        <v>0</v>
+      </c>
+      <c r="G560">
+        <v>1</v>
+      </c>
+      <c r="H560">
+        <v>0</v>
+      </c>
+      <c r="I560">
+        <v>1</v>
+      </c>
+      <c r="J560">
+        <v>0</v>
+      </c>
+      <c r="K560">
+        <v>0</v>
+      </c>
+      <c r="L560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A561" t="s">
+        <v>79</v>
+      </c>
+      <c r="C561">
+        <v>4</v>
+      </c>
+      <c r="D561">
+        <v>2</v>
+      </c>
+      <c r="E561">
+        <v>3</v>
+      </c>
+      <c r="F561">
+        <v>1</v>
+      </c>
+      <c r="G561">
+        <v>1</v>
+      </c>
+      <c r="H561">
+        <v>0</v>
+      </c>
+      <c r="I561">
+        <v>0</v>
+      </c>
+      <c r="J561">
+        <v>0</v>
+      </c>
+      <c r="K561">
+        <v>0</v>
+      </c>
+      <c r="L561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A562" t="s">
+        <v>1</v>
+      </c>
+      <c r="C562">
+        <v>4</v>
+      </c>
+      <c r="D562">
+        <v>2</v>
+      </c>
+      <c r="E562">
+        <v>3</v>
+      </c>
+      <c r="F562">
+        <v>3</v>
+      </c>
+      <c r="G562">
+        <v>1</v>
+      </c>
+      <c r="H562">
+        <v>0</v>
+      </c>
+      <c r="I562">
+        <v>0</v>
+      </c>
+      <c r="J562">
+        <v>0</v>
+      </c>
+      <c r="K562">
+        <v>0</v>
+      </c>
+      <c r="L562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A563" t="s">
+        <v>32</v>
+      </c>
+      <c r="C563">
+        <v>4</v>
+      </c>
+      <c r="D563">
+        <v>2</v>
+      </c>
+      <c r="E563">
+        <v>3</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+      <c r="G563">
+        <v>1</v>
+      </c>
+      <c r="H563">
+        <v>0</v>
+      </c>
+      <c r="I563">
+        <v>0</v>
+      </c>
+      <c r="J563">
+        <v>0</v>
+      </c>
+      <c r="K563">
+        <v>0</v>
+      </c>
+      <c r="L563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A564" t="s">
+        <v>6</v>
+      </c>
+      <c r="C564">
+        <v>4</v>
+      </c>
+      <c r="D564">
+        <v>2</v>
+      </c>
+      <c r="E564">
+        <v>3</v>
+      </c>
+      <c r="F564">
+        <v>0</v>
+      </c>
+      <c r="G564">
+        <v>1</v>
+      </c>
+      <c r="H564">
+        <v>0</v>
+      </c>
+      <c r="I564">
+        <v>0</v>
+      </c>
+      <c r="J564">
+        <v>0</v>
+      </c>
+      <c r="K564">
+        <v>0</v>
+      </c>
+      <c r="L564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A565" t="s">
+        <v>49</v>
+      </c>
+      <c r="C565">
+        <v>4</v>
+      </c>
+      <c r="D565">
+        <v>2</v>
+      </c>
+      <c r="E565">
+        <v>3</v>
+      </c>
+      <c r="F565">
+        <v>1</v>
+      </c>
+      <c r="G565">
+        <v>1</v>
+      </c>
+      <c r="H565">
+        <v>0</v>
+      </c>
+      <c r="I565">
+        <v>0</v>
+      </c>
+      <c r="J565">
+        <v>0</v>
+      </c>
+      <c r="K565">
+        <v>0</v>
+      </c>
+      <c r="L565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A566" t="s">
+        <v>55</v>
+      </c>
+      <c r="C566">
+        <v>5</v>
+      </c>
+      <c r="D566">
+        <v>6</v>
+      </c>
+      <c r="E566">
+        <v>6</v>
+      </c>
+      <c r="F566">
+        <v>1</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566">
+        <v>0</v>
+      </c>
+      <c r="I566">
+        <v>1</v>
+      </c>
+      <c r="J566">
+        <v>0</v>
+      </c>
+      <c r="K566">
+        <v>10</v>
+      </c>
+      <c r="L566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A567" t="s">
+        <v>17</v>
+      </c>
+      <c r="C567">
+        <v>6</v>
+      </c>
+      <c r="D567">
+        <v>6</v>
+      </c>
+      <c r="E567">
+        <v>5</v>
+      </c>
+      <c r="F567">
+        <v>2</v>
+      </c>
+      <c r="G567">
+        <v>1</v>
+      </c>
+      <c r="H567">
+        <v>1</v>
+      </c>
+      <c r="I567">
+        <v>0</v>
+      </c>
+      <c r="J567">
+        <v>0</v>
+      </c>
+      <c r="K567">
+        <v>10</v>
+      </c>
+      <c r="L567">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
